--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_1_12.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_1_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-253462.6280366544</v>
+        <v>-198209.1649033179</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17393893.48890403</v>
+        <v>16693787.93026804</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484443</v>
+        <v>492028.9342484446</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8888645.590841515</v>
+        <v>8899392.502370605</v>
       </c>
     </row>
     <row r="11">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>165.3373054727724</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>73.78311634844648</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,16 +707,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
         <v>0.8069000430770075</v>
@@ -725,7 +725,7 @@
         <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>149.006192607829</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
         <v>163.9353622244306</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
         <v>157.6489550149833</v>
@@ -883,7 +883,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>155.2065938718297</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -893,22 +893,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>274.4086382607471</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
         <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>132.4862655442107</v>
       </c>
       <c r="X5" t="n">
         <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="6">
@@ -1066,10 +1066,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480022511</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>8.129390960577833</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
         <v>242.9378371199217</v>
@@ -1133,10 +1133,10 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>302.8328492848907</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
         <v>429.4369973932878</v>
@@ -1148,7 +1148,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -1181,19 +1181,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>173.495484978699</v>
       </c>
       <c r="X8" t="n">
         <v>14.9510387864824</v>
@@ -1345,10 +1345,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>131.996999652747</v>
       </c>
       <c r="V10" t="n">
-        <v>141.2426925850001</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
         <v>269.3061403695714</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>89.78027874888016</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -1433,7 +1433,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>261.5671724394948</v>
       </c>
       <c r="Y11" t="n">
         <v>404.2032624633431</v>
@@ -1537,13 +1537,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>139.7824903885277</v>
       </c>
       <c r="G13" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>18.0567773522574</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1591,7 +1591,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>225.1454739790328</v>
@@ -1622,10 +1622,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>79.04149640904527</v>
       </c>
       <c r="T14" t="n">
         <v>217.8665548556918</v>
@@ -1664,10 +1664,10 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>375.4939463247559</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
         <v>414.9510387864824</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>18.0567773522574</v>
+        <v>18.05677735225723</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1844,13 +1844,13 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>49.45731380457836</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>139.4242857131164</v>
       </c>
       <c r="F17" t="n">
         <v>423.5887552948843</v>
@@ -1862,7 +1862,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2017,7 +2017,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>129.7139627068454</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>18.05677735225785</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2062,7 +2062,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>242.9378371199217</v>
@@ -2099,7 +2099,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
-        <v>256.6300796561533</v>
+        <v>49.84534453311404</v>
       </c>
       <c r="V20" t="n">
         <v>358.9907805655117</v>
@@ -2147,7 +2147,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>19.48690670037536</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="21">
@@ -2245,19 +2245,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>18.05677735225751</v>
+        <v>102.5724179071753</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2476,7 +2476,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>164.2192128704925</v>
@@ -2491,7 +2491,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225818</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2542,7 +2542,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
-        <v>225.1454739790328</v>
+        <v>117.8862381513847</v>
       </c>
     </row>
     <row r="26">
@@ -2722,16 +2722,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>35.34780583513566</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>27.07950026194646</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
         <v>157.6489550149833</v>
@@ -2767,7 +2767,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>284.0859530482738</v>
@@ -2953,7 +2953,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
         <v>168.0604237117701</v>
@@ -2965,7 +2965,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>43.7728376562201</v>
+        <v>18.05677735223699</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3202,7 +3202,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225694</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3263,28 +3263,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>405.8008644413114</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>417.5253377496636</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>415.3149766385526</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>413.2012870545404</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>407.353044956137</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>381.1481427242214</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H35" t="n">
-        <v>270.0031426724686</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>66.57964473925405</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T35" t="n">
-        <v>201.6308445169444</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U35" t="n">
-        <v>240.394369317406</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V35" t="n">
-        <v>342.7550702267644</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>384.5711897043297</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>398.7153284477351</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>387.9675521245958</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>173.6647221930499</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>154.60038406286</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>147.9835025317452</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>151.8247133730228</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>158.704273159114</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>147.6996518856833</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>122.2674422277819</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>71.5376393943241</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>4.967932742934529</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>141.4132446762352</v>
+        <v>18.05677735225785</v>
       </c>
       <c r="T37" t="n">
-        <v>227.184941618582</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
-        <v>259.4129604006784</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
-        <v>267.8502427095265</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>253.0704300308241</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>226.7021267811743</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>208.9097636402855</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>405.8008644413113</v>
+        <v>410.3479716999605</v>
       </c>
       <c r="C38" t="n">
-        <v>417.5253377496635</v>
+        <v>422.0724450083127</v>
       </c>
       <c r="D38" t="n">
-        <v>415.3149766385525</v>
+        <v>419.8620838972013</v>
       </c>
       <c r="E38" t="n">
-        <v>413.2012870545404</v>
+        <v>417.7483943131896</v>
       </c>
       <c r="F38" t="n">
-        <v>407.353044956137</v>
+        <v>411.9001522147861</v>
       </c>
       <c r="G38" t="n">
-        <v>381.1481427242214</v>
+        <v>385.6952499828706</v>
       </c>
       <c r="H38" t="n">
-        <v>270.0031426724685</v>
+        <v>274.5502499311177</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>66.57964473925398</v>
+        <v>71.12675199790321</v>
       </c>
       <c r="T38" t="n">
-        <v>201.6308445169444</v>
+        <v>206.1779517755936</v>
       </c>
       <c r="U38" t="n">
-        <v>240.3943693174059</v>
+        <v>244.9414765760551</v>
       </c>
       <c r="V38" t="n">
-        <v>342.7550702267644</v>
+        <v>347.3021774854136</v>
       </c>
       <c r="W38" t="n">
-        <v>384.5711897043296</v>
+        <v>389.1182969629788</v>
       </c>
       <c r="X38" t="n">
-        <v>398.715328447735</v>
+        <v>403.2624357063842</v>
       </c>
       <c r="Y38" t="n">
-        <v>387.9675521245973</v>
+        <v>392.5146593832449</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>173.6647221930498</v>
+        <v>178.2118294516991</v>
       </c>
       <c r="C40" t="n">
-        <v>154.6003840628599</v>
+        <v>159.1474913215092</v>
       </c>
       <c r="D40" t="n">
-        <v>147.9835025317451</v>
+        <v>152.5306097903944</v>
       </c>
       <c r="E40" t="n">
-        <v>151.8247133730227</v>
+        <v>156.371820631672</v>
       </c>
       <c r="F40" t="n">
-        <v>158.7042731591139</v>
+        <v>163.2513804177632</v>
       </c>
       <c r="G40" t="n">
-        <v>147.6996518856832</v>
+        <v>152.2467591443325</v>
       </c>
       <c r="H40" t="n">
-        <v>122.2674422277818</v>
+        <v>94.49262140740008</v>
       </c>
       <c r="I40" t="n">
-        <v>71.53763939432406</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>4.967932742934448</v>
+        <v>9.515040001583685</v>
       </c>
       <c r="S40" t="n">
-        <v>141.4132446762359</v>
+        <v>145.9603519348852</v>
       </c>
       <c r="T40" t="n">
-        <v>227.1849416185819</v>
+        <v>231.7320488772311</v>
       </c>
       <c r="U40" t="n">
-        <v>259.4129604006783</v>
+        <v>263.9600676593275</v>
       </c>
       <c r="V40" t="n">
-        <v>267.8502427095265</v>
+        <v>272.3973499681757</v>
       </c>
       <c r="W40" t="n">
-        <v>253.070430030824</v>
+        <v>257.6175372894732</v>
       </c>
       <c r="X40" t="n">
-        <v>226.7021267811743</v>
+        <v>231.2492340398235</v>
       </c>
       <c r="Y40" t="n">
-        <v>208.9097636402854</v>
+        <v>213.4568708989347</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>405.8008644413113</v>
+        <v>410.3479716999605</v>
       </c>
       <c r="C41" t="n">
-        <v>417.5253377496635</v>
+        <v>422.0724450083127</v>
       </c>
       <c r="D41" t="n">
-        <v>415.3149766385525</v>
+        <v>419.8620838972017</v>
       </c>
       <c r="E41" t="n">
-        <v>413.2012870545404</v>
+        <v>417.7483943131896</v>
       </c>
       <c r="F41" t="n">
-        <v>407.353044956137</v>
+        <v>411.9001522147861</v>
       </c>
       <c r="G41" t="n">
-        <v>381.1481427242214</v>
+        <v>385.6952499828706</v>
       </c>
       <c r="H41" t="n">
-        <v>270.0031426724685</v>
+        <v>274.5502499311177</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>66.57964473925398</v>
+        <v>71.12675199790321</v>
       </c>
       <c r="T41" t="n">
-        <v>201.6308445169444</v>
+        <v>206.1779517755936</v>
       </c>
       <c r="U41" t="n">
-        <v>240.3943693174059</v>
+        <v>244.9414765760551</v>
       </c>
       <c r="V41" t="n">
-        <v>342.7550702267644</v>
+        <v>347.3021774854136</v>
       </c>
       <c r="W41" t="n">
-        <v>384.5711897043296</v>
+        <v>389.1182969629788</v>
       </c>
       <c r="X41" t="n">
-        <v>398.715328447735</v>
+        <v>403.2624357063842</v>
       </c>
       <c r="Y41" t="n">
-        <v>387.9675521245957</v>
+        <v>392.5146593832449</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>173.6647221930498</v>
+        <v>178.2118294516991</v>
       </c>
       <c r="C43" t="n">
-        <v>154.6003840628599</v>
+        <v>159.1474913215092</v>
       </c>
       <c r="D43" t="n">
-        <v>147.9835025317451</v>
+        <v>152.5306097903944</v>
       </c>
       <c r="E43" t="n">
-        <v>151.8247133730227</v>
+        <v>156.371820631672</v>
       </c>
       <c r="F43" t="n">
-        <v>158.7042731591139</v>
+        <v>163.2513804177632</v>
       </c>
       <c r="G43" t="n">
-        <v>147.6996518856832</v>
+        <v>152.2467591443325</v>
       </c>
       <c r="H43" t="n">
-        <v>122.2674422277818</v>
+        <v>18.40787475442639</v>
       </c>
       <c r="I43" t="n">
-        <v>71.53763939432403</v>
+        <v>76.08474665297327</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>4.967932742934448</v>
+        <v>9.515040001583685</v>
       </c>
       <c r="S43" t="n">
-        <v>141.4132446762359</v>
+        <v>145.9603519348852</v>
       </c>
       <c r="T43" t="n">
-        <v>227.1849416185819</v>
+        <v>231.7320488772311</v>
       </c>
       <c r="U43" t="n">
-        <v>259.4129604006783</v>
+        <v>263.9600676593275</v>
       </c>
       <c r="V43" t="n">
-        <v>267.8502427095265</v>
+        <v>272.3973499681757</v>
       </c>
       <c r="W43" t="n">
-        <v>253.070430030824</v>
+        <v>257.6175372894732</v>
       </c>
       <c r="X43" t="n">
-        <v>226.7021267811743</v>
+        <v>231.2492340398235</v>
       </c>
       <c r="Y43" t="n">
-        <v>208.9097636402854</v>
+        <v>213.4568708989347</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>405.8008644413113</v>
+        <v>410.3479716999605</v>
       </c>
       <c r="C44" t="n">
-        <v>417.5253377496635</v>
+        <v>422.0724450083127</v>
       </c>
       <c r="D44" t="n">
-        <v>415.3149766385525</v>
+        <v>419.8620838972017</v>
       </c>
       <c r="E44" t="n">
-        <v>413.2012870545404</v>
+        <v>417.7483943131896</v>
       </c>
       <c r="F44" t="n">
-        <v>407.353044956137</v>
+        <v>411.9001522147861</v>
       </c>
       <c r="G44" t="n">
-        <v>381.1481427242214</v>
+        <v>385.6952499828706</v>
       </c>
       <c r="H44" t="n">
-        <v>270.0031426724685</v>
+        <v>274.5502499311177</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>66.57964473925398</v>
+        <v>71.12675199790321</v>
       </c>
       <c r="T44" t="n">
-        <v>201.6308445169444</v>
+        <v>206.1779517755936</v>
       </c>
       <c r="U44" t="n">
-        <v>240.3943693174059</v>
+        <v>244.9414765760551</v>
       </c>
       <c r="V44" t="n">
-        <v>342.7550702267644</v>
+        <v>347.3021774854136</v>
       </c>
       <c r="W44" t="n">
-        <v>384.5711897043296</v>
+        <v>389.1182969629788</v>
       </c>
       <c r="X44" t="n">
-        <v>398.715328447735</v>
+        <v>403.2624357063842</v>
       </c>
       <c r="Y44" t="n">
-        <v>387.9675521245957</v>
+        <v>392.5146593832449</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>173.6647221930498</v>
+        <v>178.2118294516991</v>
       </c>
       <c r="C46" t="n">
-        <v>154.6003840628599</v>
+        <v>159.1474913215092</v>
       </c>
       <c r="D46" t="n">
-        <v>147.9835025317451</v>
+        <v>152.5306097903944</v>
       </c>
       <c r="E46" t="n">
-        <v>151.8247133730227</v>
+        <v>156.371820631672</v>
       </c>
       <c r="F46" t="n">
-        <v>158.7042731591139</v>
+        <v>163.2513804177632</v>
       </c>
       <c r="G46" t="n">
-        <v>147.6996518856832</v>
+        <v>152.2467591443325</v>
       </c>
       <c r="H46" t="n">
-        <v>122.2674422277818</v>
+        <v>27.92291475601007</v>
       </c>
       <c r="I46" t="n">
-        <v>71.53763939432403</v>
+        <v>76.08474665297327</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>4.967932742934448</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>141.4132446762359</v>
+        <v>145.9603519348852</v>
       </c>
       <c r="T46" t="n">
-        <v>227.1849416185819</v>
+        <v>231.7320488772311</v>
       </c>
       <c r="U46" t="n">
-        <v>259.4129604006783</v>
+        <v>263.9600676593275</v>
       </c>
       <c r="V46" t="n">
-        <v>267.8502427095265</v>
+        <v>272.3973499681757</v>
       </c>
       <c r="W46" t="n">
-        <v>253.070430030824</v>
+        <v>257.6175372894732</v>
       </c>
       <c r="X46" t="n">
-        <v>226.7021267811743</v>
+        <v>231.2492340398235</v>
       </c>
       <c r="Y46" t="n">
-        <v>208.9097636402854</v>
+        <v>213.4568708989347</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>687.7796263806116</v>
+        <v>1860.981476291556</v>
       </c>
       <c r="C2" t="n">
-        <v>520.7722471151849</v>
+        <v>1422.839003474979</v>
       </c>
       <c r="D2" t="n">
-        <v>488.9028663300335</v>
+        <v>986.9292186494238</v>
       </c>
       <c r="E2" t="n">
-        <v>459.1685255287327</v>
+        <v>957.194877848123</v>
       </c>
       <c r="F2" t="n">
-        <v>435.3414999783445</v>
+        <v>529.3274482573308</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>127.9296168805947</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>141.0418768474983</v>
       </c>
       <c r="K2" t="n">
-        <v>874.0494664914149</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="L2" t="n">
-        <v>874.0494664914149</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="M2" t="n">
-        <v>874.0494664914149</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="N2" t="n">
-        <v>874.0494664914149</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="O2" t="n">
-        <v>874.0494664914149</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S2" t="n">
-        <v>1613.531556264254</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T2" t="n">
-        <v>1393.464329137293</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U2" t="n">
-        <v>1134.24202645431</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V2" t="n">
-        <v>1134.24202645431</v>
+        <v>2307.443876365254</v>
       </c>
       <c r="W2" t="n">
-        <v>1133.426975905747</v>
+        <v>2306.628825816691</v>
       </c>
       <c r="X2" t="n">
-        <v>1118.324916525462</v>
+        <v>2291.526766436406</v>
       </c>
       <c r="Y2" t="n">
-        <v>1114.079196865519</v>
+        <v>1883.24064273606</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F3" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K3" t="n">
-        <v>384.5656667282782</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L3" t="n">
-        <v>384.5656667282782</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M3" t="n">
-        <v>384.5656667282782</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N3" t="n">
-        <v>384.5656667282782</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O3" t="n">
-        <v>739.9048540962709</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>339.4371178854062</v>
+        <v>1028.432740781182</v>
       </c>
       <c r="C4" t="n">
-        <v>339.4371178854062</v>
+        <v>855.8710292644067</v>
       </c>
       <c r="D4" t="n">
-        <v>339.4371178854062</v>
+        <v>705.359723599933</v>
       </c>
       <c r="E4" t="n">
-        <v>339.4371178854062</v>
+        <v>535.6017198506702</v>
       </c>
       <c r="F4" t="n">
-        <v>339.4371178854062</v>
+        <v>358.8946658124264</v>
       </c>
       <c r="G4" t="n">
-        <v>173.8458429112338</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J4" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933183</v>
       </c>
       <c r="K4" t="n">
-        <v>33.94366860160834</v>
+        <v>414.7393562644539</v>
       </c>
       <c r="L4" t="n">
-        <v>452.1535503695694</v>
+        <v>832.949238032415</v>
       </c>
       <c r="M4" t="n">
-        <v>509.954387939391</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N4" t="n">
-        <v>930.0072868842942</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O4" t="n">
-        <v>1349.676536110076</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P4" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S4" t="n">
-        <v>1537.942061378414</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T4" t="n">
-        <v>1292.062614956869</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="U4" t="n">
-        <v>1013.629614209975</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V4" t="n">
-        <v>1013.629614209975</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="W4" t="n">
-        <v>741.6032097962661</v>
+        <v>1693.062784852648</v>
       </c>
       <c r="X4" t="n">
-        <v>496.2114551296786</v>
+        <v>1447.671030186061</v>
       </c>
       <c r="Y4" t="n">
-        <v>339.4371178854062</v>
+        <v>1220.251359500169</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>153.8932738874814</v>
+        <v>1786.86986531245</v>
       </c>
       <c r="C5" t="n">
-        <v>119.7912051113087</v>
+        <v>1752.767796536277</v>
       </c>
       <c r="D5" t="n">
-        <v>87.92182432615731</v>
+        <v>1316.858011710722</v>
       </c>
       <c r="E5" t="n">
-        <v>58.18748352485655</v>
+        <v>883.0832668690169</v>
       </c>
       <c r="F5" t="n">
-        <v>34.36045797446834</v>
+        <v>455.2158372782247</v>
       </c>
       <c r="G5" t="n">
-        <v>34.36045797446834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H5" t="n">
-        <v>34.36045797446834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>687.9235674375537</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L5" t="n">
-        <v>687.9235674375537</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M5" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N5" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O5" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T5" t="n">
-        <v>1477.116202953456</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U5" t="n">
-        <v>1217.893900270473</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="V5" t="n">
-        <v>855.2769502042993</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="W5" t="n">
-        <v>854.4618996557366</v>
+        <v>2232.517214837585</v>
       </c>
       <c r="X5" t="n">
-        <v>839.3598402754513</v>
+        <v>2217.4151554573</v>
       </c>
       <c r="Y5" t="n">
-        <v>431.0737165751048</v>
+        <v>2213.169435797358</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1024.341879988165</v>
+        <v>741.4772326516122</v>
       </c>
       <c r="C7" t="n">
-        <v>851.7801684713901</v>
+        <v>568.9155211348371</v>
       </c>
       <c r="D7" t="n">
-        <v>685.9021756729128</v>
+        <v>403.0375283363599</v>
       </c>
       <c r="E7" t="n">
-        <v>516.14417192365</v>
+        <v>233.2795245870971</v>
       </c>
       <c r="F7" t="n">
-        <v>339.4371178854062</v>
+        <v>56.57247054885332</v>
       </c>
       <c r="G7" t="n">
-        <v>173.8458429112338</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>269.215608100497</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>269.215608100497</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>689.2685070454004</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1109.321405990304</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>1528.990655216085</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T7" t="n">
-        <v>1697.183430080417</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="U7" t="n">
-        <v>1697.183430080417</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V7" t="n">
-        <v>1688.971924059632</v>
+        <v>1678.133681136787</v>
       </c>
       <c r="W7" t="n">
-        <v>1688.971924059632</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X7" t="n">
-        <v>1443.580169393044</v>
+        <v>1160.715522056491</v>
       </c>
       <c r="Y7" t="n">
-        <v>1216.160498707152</v>
+        <v>933.2958513705994</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1940.316360684652</v>
+        <v>1786.86986531245</v>
       </c>
       <c r="C8" t="n">
-        <v>1906.214291908479</v>
+        <v>1348.727392495873</v>
       </c>
       <c r="D8" t="n">
-        <v>1600.322524954044</v>
+        <v>1316.858011710722</v>
       </c>
       <c r="E8" t="n">
-        <v>1166.547780112339</v>
+        <v>883.0832668690169</v>
       </c>
       <c r="F8" t="n">
-        <v>738.6803505215469</v>
+        <v>455.2158372782247</v>
       </c>
       <c r="G8" t="n">
-        <v>337.2825191448107</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H8" t="n">
-        <v>48.152364588027</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>47.735575215167</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>482.9902626680849</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>1073.718005955776</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="L8" t="n">
-        <v>1073.718005955776</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="M8" t="n">
-        <v>1080.398166759006</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="N8" t="n">
-        <v>1080.398166759006</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O8" t="n">
-        <v>1080.398166759006</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1671.125910046698</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>2217.624696005293</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>2386.77876075835</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2386.77876075835</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>2386.77876075835</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>2386.77876075835</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="V8" t="n">
-        <v>2386.77876075835</v>
+        <v>2003.72477542213</v>
       </c>
       <c r="W8" t="n">
-        <v>1981.923306169383</v>
+        <v>1828.476810797181</v>
       </c>
       <c r="X8" t="n">
-        <v>1966.821246789098</v>
+        <v>1813.374751416896</v>
       </c>
       <c r="Y8" t="n">
-        <v>1962.575527129155</v>
+        <v>1809.129031756954</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>553.9073202064598</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>447.4508590431021</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>352.3605701896553</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>258.240155516609</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>174.8563171327706</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>89.47122739895454</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>47.735575215167</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>73.7992483756246</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>398.3575733418369</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>989.0853166295285</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>1053.06361996756</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>1053.06361996756</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1053.06361996756</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1053.06361996756</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1053.06361996756</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1593.802558599636</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1710.975336693976</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1647.519899142359</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1517.34125547296</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1341.004708472929</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1141.887190534928</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>956.5644362681221</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>801.6970005070021</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>675.2112212862229</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1126.793735827048</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>954.2320243102732</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>788.3540315117959</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>618.5960277625333</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>441.8889737242895</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>276.2976987501171</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>136.3955244404917</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>47.735575215167</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>47.735575215167</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>299.650065455708</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>717.8599472236691</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>1177.343814404582</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1619.602617562227</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>2039.271866788008</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>2386.77876075835</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>2386.77876075835</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2365.360939463722</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>2206.119570761718</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>2206.119570761718</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="U10" t="n">
-        <v>2206.119570761718</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V10" t="n">
-        <v>2063.450184312223</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W10" t="n">
-        <v>1791.423779898515</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>1546.032025231927</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>1318.612354546035</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2520.969386844472</v>
+        <v>2519.539796646209</v>
       </c>
       <c r="C11" t="n">
-        <v>2082.826914027895</v>
+        <v>2081.397323829632</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.917129202339</v>
+        <v>1645.487539004077</v>
       </c>
       <c r="E11" t="n">
-        <v>1213.142384360634</v>
+        <v>1211.712794162372</v>
       </c>
       <c r="F11" t="n">
-        <v>785.2749547698421</v>
+        <v>783.8453645715796</v>
       </c>
       <c r="G11" t="n">
-        <v>383.877123393106</v>
+        <v>382.4475331948435</v>
       </c>
       <c r="H11" t="n">
-        <v>94.74696883632227</v>
+        <v>93.31737863805971</v>
       </c>
       <c r="I11" t="n">
-        <v>94.33017946346227</v>
+        <v>92.90058926519971</v>
       </c>
       <c r="J11" t="n">
-        <v>529.5848669163802</v>
+        <v>211.4768129335944</v>
       </c>
       <c r="K11" t="n">
-        <v>1363.935158874558</v>
+        <v>1045.827104891772</v>
       </c>
       <c r="L11" t="n">
-        <v>2192.366581057759</v>
+        <v>2120.887071144632</v>
       </c>
       <c r="M11" t="n">
-        <v>2192.366581057759</v>
+        <v>2120.887071144632</v>
       </c>
       <c r="N11" t="n">
-        <v>2192.366581057759</v>
+        <v>2120.887071144632</v>
       </c>
       <c r="O11" t="n">
-        <v>3172.546247628065</v>
+        <v>3101.066737714938</v>
       </c>
       <c r="P11" t="n">
-        <v>4000.856122461461</v>
+        <v>3929.376612548334</v>
       </c>
       <c r="Q11" t="n">
-        <v>4547.354908420057</v>
+        <v>4475.875398506929</v>
       </c>
       <c r="R11" t="n">
-        <v>4716.508973173113</v>
+        <v>4645.029463259985</v>
       </c>
       <c r="S11" t="n">
-        <v>4632.85709935695</v>
+        <v>4645.029463259985</v>
       </c>
       <c r="T11" t="n">
-        <v>4542.169949105555</v>
+        <v>4645.029463259985</v>
       </c>
       <c r="U11" t="n">
-        <v>4542.169949105555</v>
+        <v>4385.807160577002</v>
       </c>
       <c r="V11" t="n">
-        <v>4179.552999039382</v>
+        <v>4023.190210510828</v>
       </c>
       <c r="W11" t="n">
-        <v>3774.697544450415</v>
+        <v>3618.334755921862</v>
       </c>
       <c r="X11" t="n">
-        <v>3355.555081029726</v>
+        <v>3354.125490831463</v>
       </c>
       <c r="Y11" t="n">
-        <v>2947.268957329379</v>
+        <v>2945.839367131116</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>600.5019244547551</v>
+        <v>599.0723342564925</v>
       </c>
       <c r="C12" t="n">
-        <v>494.0454632913974</v>
+        <v>492.6158730931348</v>
       </c>
       <c r="D12" t="n">
-        <v>398.9551744379506</v>
+        <v>397.525584239688</v>
       </c>
       <c r="E12" t="n">
-        <v>304.8347597649043</v>
+        <v>303.4051695666417</v>
       </c>
       <c r="F12" t="n">
-        <v>221.4509213810659</v>
+        <v>220.0213311828034</v>
       </c>
       <c r="G12" t="n">
-        <v>136.0658316472498</v>
+        <v>134.6362414489872</v>
       </c>
       <c r="H12" t="n">
-        <v>94.33017946346227</v>
+        <v>92.90058926519971</v>
       </c>
       <c r="I12" t="n">
-        <v>120.3938526239199</v>
+        <v>118.9642624256573</v>
       </c>
       <c r="J12" t="n">
-        <v>444.9521775901322</v>
+        <v>443.5225873918696</v>
       </c>
       <c r="K12" t="n">
-        <v>1099.658224215856</v>
+        <v>1098.228634017593</v>
       </c>
       <c r="L12" t="n">
-        <v>1099.658224215856</v>
+        <v>1098.228634017593</v>
       </c>
       <c r="M12" t="n">
-        <v>1099.658224215856</v>
+        <v>1098.228634017593</v>
       </c>
       <c r="N12" t="n">
-        <v>1099.658224215856</v>
+        <v>1098.228634017593</v>
       </c>
       <c r="O12" t="n">
-        <v>1099.658224215856</v>
+        <v>1098.228634017593</v>
       </c>
       <c r="P12" t="n">
-        <v>1099.658224215856</v>
+        <v>1098.228634017593</v>
       </c>
       <c r="Q12" t="n">
-        <v>1640.397162847931</v>
+        <v>1638.967572649669</v>
       </c>
       <c r="R12" t="n">
-        <v>1757.569940942271</v>
+        <v>1756.140350744009</v>
       </c>
       <c r="S12" t="n">
-        <v>1694.114503390654</v>
+        <v>1692.684913192392</v>
       </c>
       <c r="T12" t="n">
-        <v>1563.935859721256</v>
+        <v>1562.506269522993</v>
       </c>
       <c r="U12" t="n">
-        <v>1387.599312721224</v>
+        <v>1386.169722522962</v>
       </c>
       <c r="V12" t="n">
-        <v>1188.481794783223</v>
+        <v>1187.052204584961</v>
       </c>
       <c r="W12" t="n">
-        <v>1003.159040516417</v>
+        <v>1001.729450318155</v>
       </c>
       <c r="X12" t="n">
-        <v>848.2916047552975</v>
+        <v>846.8620145570349</v>
       </c>
       <c r="Y12" t="n">
-        <v>721.8058255345182</v>
+        <v>720.3762353362556</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>944.8262165403935</v>
+        <v>1047.7861813494</v>
       </c>
       <c r="C13" t="n">
-        <v>772.2645050236185</v>
+        <v>875.2244698326244</v>
       </c>
       <c r="D13" t="n">
-        <v>606.3865122251412</v>
+        <v>709.3464770341473</v>
       </c>
       <c r="E13" t="n">
-        <v>436.6285084758784</v>
+        <v>539.5884732848845</v>
       </c>
       <c r="F13" t="n">
-        <v>259.9214544376346</v>
+        <v>398.3940385489975</v>
       </c>
       <c r="G13" t="n">
-        <v>94.33017946346227</v>
+        <v>232.8027635748252</v>
       </c>
       <c r="H13" t="n">
-        <v>94.33017946346227</v>
+        <v>92.90058926519971</v>
       </c>
       <c r="I13" t="n">
-        <v>94.33017946346227</v>
+        <v>92.90058926519971</v>
       </c>
       <c r="J13" t="n">
-        <v>180.9098646281521</v>
+        <v>179.4802744298896</v>
       </c>
       <c r="K13" t="n">
-        <v>455.6683191992877</v>
+        <v>454.2387290010251</v>
       </c>
       <c r="L13" t="n">
-        <v>873.8782009672487</v>
+        <v>872.4486107689862</v>
       </c>
       <c r="M13" t="n">
-        <v>1333.362068148162</v>
+        <v>1331.932477949899</v>
       </c>
       <c r="N13" t="n">
-        <v>1775.620871305806</v>
+        <v>1774.191281107544</v>
       </c>
       <c r="O13" t="n">
-        <v>2195.290120531588</v>
+        <v>2193.860530333325</v>
       </c>
       <c r="P13" t="n">
-        <v>2542.79701450193</v>
+        <v>2541.367424303667</v>
       </c>
       <c r="Q13" t="n">
-        <v>2710.989789366262</v>
+        <v>2709.560199168</v>
       </c>
       <c r="R13" t="n">
-        <v>2710.989789366262</v>
+        <v>2709.560199168</v>
       </c>
       <c r="S13" t="n">
-        <v>2692.750620323578</v>
+        <v>2550.318830465996</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.871173902033</v>
+        <v>2304.439384044451</v>
       </c>
       <c r="U13" t="n">
-        <v>2168.438173155138</v>
+        <v>2026.006383297557</v>
       </c>
       <c r="V13" t="n">
-        <v>1881.482665025568</v>
+        <v>1739.050875167987</v>
       </c>
       <c r="W13" t="n">
-        <v>1609.45626061186</v>
+        <v>1467.024470754278</v>
       </c>
       <c r="X13" t="n">
-        <v>1364.064505945272</v>
+        <v>1467.024470754278</v>
       </c>
       <c r="Y13" t="n">
-        <v>1136.644835259381</v>
+        <v>1239.604800068387</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2520.552597471612</v>
+        <v>2233.791482217245</v>
       </c>
       <c r="C14" t="n">
-        <v>2082.410124655035</v>
+        <v>1795.649009400668</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.500339829479</v>
+        <v>1359.739224575113</v>
       </c>
       <c r="E14" t="n">
-        <v>1212.725594987774</v>
+        <v>925.9644797334076</v>
       </c>
       <c r="F14" t="n">
-        <v>784.8581653969821</v>
+        <v>498.0970501426154</v>
       </c>
       <c r="G14" t="n">
-        <v>383.460334020246</v>
+        <v>96.69921876587887</v>
       </c>
       <c r="H14" t="n">
-        <v>94.33017946346227</v>
+        <v>96.6992187658789</v>
       </c>
       <c r="I14" t="n">
-        <v>94.33017946346227</v>
+        <v>96.2824293930189</v>
       </c>
       <c r="J14" t="n">
-        <v>529.5848669163802</v>
+        <v>96.2824293930189</v>
       </c>
       <c r="K14" t="n">
-        <v>1363.935158874558</v>
+        <v>476.1030181807819</v>
       </c>
       <c r="L14" t="n">
-        <v>2438.995125127417</v>
+        <v>1551.162984433641</v>
       </c>
       <c r="M14" t="n">
-        <v>3020.676455891155</v>
+        <v>2708.210819644192</v>
       </c>
       <c r="N14" t="n">
-        <v>3020.676455891155</v>
+        <v>3833.941803080639</v>
       </c>
       <c r="O14" t="n">
-        <v>4000.856122461461</v>
+        <v>4814.121469650945</v>
       </c>
       <c r="P14" t="n">
-        <v>4000.856122461461</v>
+        <v>4814.121469650945</v>
       </c>
       <c r="Q14" t="n">
-        <v>4547.354908420057</v>
+        <v>4814.121469650945</v>
       </c>
       <c r="R14" t="n">
-        <v>4716.508973173113</v>
+        <v>4814.121469650945</v>
       </c>
       <c r="S14" t="n">
-        <v>4632.85709935695</v>
+        <v>4734.281574288273</v>
       </c>
       <c r="T14" t="n">
-        <v>4412.789872229989</v>
+        <v>4514.214347161312</v>
       </c>
       <c r="U14" t="n">
-        <v>4153.567569547005</v>
+        <v>4254.992044478328</v>
       </c>
       <c r="V14" t="n">
-        <v>4153.567569547005</v>
+        <v>3892.375094412155</v>
       </c>
       <c r="W14" t="n">
-        <v>3774.280755077555</v>
+        <v>3487.519639823188</v>
       </c>
       <c r="X14" t="n">
-        <v>3355.138291656866</v>
+        <v>3068.377176402499</v>
       </c>
       <c r="Y14" t="n">
-        <v>2946.852167956519</v>
+        <v>2660.091052702152</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>600.5019244547551</v>
+        <v>602.4541743843117</v>
       </c>
       <c r="C15" t="n">
-        <v>494.0454632913974</v>
+        <v>495.997713220954</v>
       </c>
       <c r="D15" t="n">
-        <v>398.9551744379506</v>
+        <v>400.9074243675072</v>
       </c>
       <c r="E15" t="n">
-        <v>304.8347597649043</v>
+        <v>306.7870096944609</v>
       </c>
       <c r="F15" t="n">
-        <v>221.4509213810659</v>
+        <v>223.4031713106226</v>
       </c>
       <c r="G15" t="n">
-        <v>136.0658316472498</v>
+        <v>138.0180815768064</v>
       </c>
       <c r="H15" t="n">
-        <v>94.33017946346227</v>
+        <v>96.2824293930189</v>
       </c>
       <c r="I15" t="n">
-        <v>94.33017946346227</v>
+        <v>122.3461025534765</v>
       </c>
       <c r="J15" t="n">
-        <v>418.8885044296746</v>
+        <v>446.9044275196888</v>
       </c>
       <c r="K15" t="n">
-        <v>418.8885044296746</v>
+        <v>446.9044275196888</v>
       </c>
       <c r="L15" t="n">
-        <v>418.8885044296746</v>
+        <v>446.9044275196888</v>
       </c>
       <c r="M15" t="n">
-        <v>418.8885044296746</v>
+        <v>446.9044275196888</v>
       </c>
       <c r="N15" t="n">
-        <v>418.8885044296746</v>
+        <v>446.9044275196888</v>
       </c>
       <c r="O15" t="n">
-        <v>418.8885044296746</v>
+        <v>446.9044275196888</v>
       </c>
       <c r="P15" t="n">
-        <v>1099.658224215856</v>
+        <v>1101.610474145413</v>
       </c>
       <c r="Q15" t="n">
-        <v>1640.397162847931</v>
+        <v>1642.349412777488</v>
       </c>
       <c r="R15" t="n">
-        <v>1757.569940942271</v>
+        <v>1759.522190871828</v>
       </c>
       <c r="S15" t="n">
-        <v>1694.114503390654</v>
+        <v>1696.066753320211</v>
       </c>
       <c r="T15" t="n">
-        <v>1563.935859721256</v>
+        <v>1565.888109650813</v>
       </c>
       <c r="U15" t="n">
-        <v>1387.599312721224</v>
+        <v>1389.551562650781</v>
       </c>
       <c r="V15" t="n">
-        <v>1188.481794783223</v>
+        <v>1190.43404471278</v>
       </c>
       <c r="W15" t="n">
-        <v>1003.159040516417</v>
+        <v>1005.111290445974</v>
       </c>
       <c r="X15" t="n">
-        <v>848.2916047552975</v>
+        <v>850.2438546848541</v>
       </c>
       <c r="Y15" t="n">
-        <v>721.8058255345182</v>
+        <v>723.7580754640749</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>944.8262165403935</v>
+        <v>946.7784664699501</v>
       </c>
       <c r="C16" t="n">
-        <v>772.2645050236185</v>
+        <v>774.216754953175</v>
       </c>
       <c r="D16" t="n">
-        <v>606.3865122251412</v>
+        <v>608.3387621546979</v>
       </c>
       <c r="E16" t="n">
-        <v>436.6285084758784</v>
+        <v>438.5807584054351</v>
       </c>
       <c r="F16" t="n">
-        <v>259.9214544376346</v>
+        <v>261.8737043671913</v>
       </c>
       <c r="G16" t="n">
-        <v>94.33017946346227</v>
+        <v>96.2824293930189</v>
       </c>
       <c r="H16" t="n">
-        <v>94.33017946346227</v>
+        <v>96.2824293930189</v>
       </c>
       <c r="I16" t="n">
-        <v>94.33017946346227</v>
+        <v>96.2824293930189</v>
       </c>
       <c r="J16" t="n">
-        <v>180.9098646281521</v>
+        <v>182.8621145577088</v>
       </c>
       <c r="K16" t="n">
-        <v>455.6683191992877</v>
+        <v>457.6205691288444</v>
       </c>
       <c r="L16" t="n">
-        <v>873.8782009672487</v>
+        <v>875.8304508968054</v>
       </c>
       <c r="M16" t="n">
-        <v>1333.362068148162</v>
+        <v>1335.314318077718</v>
       </c>
       <c r="N16" t="n">
-        <v>1775.620871305806</v>
+        <v>1777.573121235363</v>
       </c>
       <c r="O16" t="n">
-        <v>2195.290120531588</v>
+        <v>2197.242370461145</v>
       </c>
       <c r="P16" t="n">
-        <v>2542.79701450193</v>
+        <v>2544.749264431486</v>
       </c>
       <c r="Q16" t="n">
-        <v>2710.989789366262</v>
+        <v>2712.942039295818</v>
       </c>
       <c r="R16" t="n">
-        <v>2710.989789366262</v>
+        <v>2712.942039295818</v>
       </c>
       <c r="S16" t="n">
-        <v>2692.750620323578</v>
+        <v>2694.702870253134</v>
       </c>
       <c r="T16" t="n">
-        <v>2446.871173902033</v>
+        <v>2448.823423831589</v>
       </c>
       <c r="U16" t="n">
-        <v>2168.438173155138</v>
+        <v>2170.390423084695</v>
       </c>
       <c r="V16" t="n">
-        <v>1881.482665025568</v>
+        <v>1883.434914955125</v>
       </c>
       <c r="W16" t="n">
-        <v>1609.45626061186</v>
+        <v>1611.408510541416</v>
       </c>
       <c r="X16" t="n">
-        <v>1364.064505945272</v>
+        <v>1366.016755874829</v>
       </c>
       <c r="Y16" t="n">
-        <v>1136.644835259381</v>
+        <v>1138.597085188937</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2132.367007285922</v>
+        <v>2229.979503763754</v>
       </c>
       <c r="C17" t="n">
-        <v>2082.410124655034</v>
+        <v>1791.837030947177</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.500339829479</v>
+        <v>1355.927246121621</v>
       </c>
       <c r="E17" t="n">
-        <v>1212.725594987774</v>
+        <v>1215.094634290191</v>
       </c>
       <c r="F17" t="n">
-        <v>784.8581653969821</v>
+        <v>787.2272046993985</v>
       </c>
       <c r="G17" t="n">
-        <v>383.460334020246</v>
+        <v>385.8293733226624</v>
       </c>
       <c r="H17" t="n">
-        <v>94.33017946346227</v>
+        <v>96.69921876587864</v>
       </c>
       <c r="I17" t="n">
-        <v>94.33017946346227</v>
+        <v>96.2824293930189</v>
       </c>
       <c r="J17" t="n">
-        <v>94.33017946346227</v>
+        <v>531.5371168459368</v>
       </c>
       <c r="K17" t="n">
-        <v>378.4905217029493</v>
+        <v>1365.887408804115</v>
       </c>
       <c r="L17" t="n">
-        <v>1453.550487955809</v>
+        <v>2440.947375056974</v>
       </c>
       <c r="M17" t="n">
-        <v>2610.598323166359</v>
+        <v>2459.133142288648</v>
       </c>
       <c r="N17" t="n">
-        <v>3736.329306602806</v>
+        <v>2459.133142288648</v>
       </c>
       <c r="O17" t="n">
-        <v>4716.508973173113</v>
+        <v>3439.312808858955</v>
       </c>
       <c r="P17" t="n">
-        <v>4716.508973173113</v>
+        <v>4267.622683692351</v>
       </c>
       <c r="Q17" t="n">
-        <v>4716.508973173113</v>
+        <v>4814.121469650945</v>
       </c>
       <c r="R17" t="n">
-        <v>4716.508973173113</v>
+        <v>4814.121469650945</v>
       </c>
       <c r="S17" t="n">
-        <v>4632.85709935695</v>
+        <v>4730.469595834782</v>
       </c>
       <c r="T17" t="n">
-        <v>4412.789872229989</v>
+        <v>4510.402368707821</v>
       </c>
       <c r="U17" t="n">
-        <v>4153.567569547005</v>
+        <v>4251.180066024837</v>
       </c>
       <c r="V17" t="n">
-        <v>3790.950619480832</v>
+        <v>3888.563115958664</v>
       </c>
       <c r="W17" t="n">
-        <v>3386.095164891865</v>
+        <v>3483.707661369697</v>
       </c>
       <c r="X17" t="n">
-        <v>2966.952701471176</v>
+        <v>3064.565197949008</v>
       </c>
       <c r="Y17" t="n">
-        <v>2558.666577770829</v>
+        <v>2656.279074248661</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>600.5019244547551</v>
+        <v>602.4541743843117</v>
       </c>
       <c r="C18" t="n">
-        <v>494.0454632913974</v>
+        <v>495.997713220954</v>
       </c>
       <c r="D18" t="n">
-        <v>398.9551744379506</v>
+        <v>400.9074243675072</v>
       </c>
       <c r="E18" t="n">
-        <v>304.8347597649043</v>
+        <v>306.7870096944609</v>
       </c>
       <c r="F18" t="n">
-        <v>221.4509213810659</v>
+        <v>223.4031713106226</v>
       </c>
       <c r="G18" t="n">
-        <v>136.0658316472498</v>
+        <v>138.0180815768064</v>
       </c>
       <c r="H18" t="n">
-        <v>94.33017946346227</v>
+        <v>96.2824293930189</v>
       </c>
       <c r="I18" t="n">
-        <v>94.33017946346227</v>
+        <v>122.3461025534765</v>
       </c>
       <c r="J18" t="n">
-        <v>279.9350577366578</v>
+        <v>446.9044275196888</v>
       </c>
       <c r="K18" t="n">
-        <v>279.9350577366578</v>
+        <v>446.9044275196888</v>
       </c>
       <c r="L18" t="n">
-        <v>279.9350577366578</v>
+        <v>446.9044275196888</v>
       </c>
       <c r="M18" t="n">
-        <v>279.9350577366578</v>
+        <v>446.9044275196888</v>
       </c>
       <c r="N18" t="n">
-        <v>279.9350577366578</v>
+        <v>446.9044275196888</v>
       </c>
       <c r="O18" t="n">
-        <v>279.9350577366578</v>
+        <v>446.9044275196888</v>
       </c>
       <c r="P18" t="n">
-        <v>1099.658224215856</v>
+        <v>1101.610474145413</v>
       </c>
       <c r="Q18" t="n">
-        <v>1640.397162847931</v>
+        <v>1642.349412777488</v>
       </c>
       <c r="R18" t="n">
-        <v>1757.569940942271</v>
+        <v>1759.522190871828</v>
       </c>
       <c r="S18" t="n">
-        <v>1694.114503390654</v>
+        <v>1696.066753320211</v>
       </c>
       <c r="T18" t="n">
-        <v>1563.935859721256</v>
+        <v>1565.888109650813</v>
       </c>
       <c r="U18" t="n">
-        <v>1387.599312721224</v>
+        <v>1389.551562650781</v>
       </c>
       <c r="V18" t="n">
-        <v>1188.481794783223</v>
+        <v>1190.43404471278</v>
       </c>
       <c r="W18" t="n">
-        <v>1003.159040516417</v>
+        <v>1005.111290445974</v>
       </c>
       <c r="X18" t="n">
-        <v>848.2916047552975</v>
+        <v>850.2438546848541</v>
       </c>
       <c r="Y18" t="n">
-        <v>721.8058255345182</v>
+        <v>723.7580754640749</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>944.8262165403935</v>
+        <v>1077.80267122434</v>
       </c>
       <c r="C19" t="n">
-        <v>772.2645050236185</v>
+        <v>905.2409597075645</v>
       </c>
       <c r="D19" t="n">
-        <v>606.3865122251412</v>
+        <v>739.3629669090872</v>
       </c>
       <c r="E19" t="n">
-        <v>436.6285084758784</v>
+        <v>569.6049631598244</v>
       </c>
       <c r="F19" t="n">
-        <v>259.9214544376346</v>
+        <v>392.8979091215805</v>
       </c>
       <c r="G19" t="n">
-        <v>94.33017946346227</v>
+        <v>227.3066341474082</v>
       </c>
       <c r="H19" t="n">
-        <v>94.3301794634629</v>
+        <v>96.2824293930189</v>
       </c>
       <c r="I19" t="n">
-        <v>94.3301794634629</v>
+        <v>96.2824293930189</v>
       </c>
       <c r="J19" t="n">
-        <v>180.9098646281527</v>
+        <v>182.8621145577088</v>
       </c>
       <c r="K19" t="n">
-        <v>455.6683191992884</v>
+        <v>457.6205691288444</v>
       </c>
       <c r="L19" t="n">
-        <v>873.8782009672494</v>
+        <v>875.8304508968054</v>
       </c>
       <c r="M19" t="n">
-        <v>1333.362068148162</v>
+        <v>1335.314318077718</v>
       </c>
       <c r="N19" t="n">
-        <v>1775.620871305807</v>
+        <v>1777.573121235363</v>
       </c>
       <c r="O19" t="n">
-        <v>2195.290120531588</v>
+        <v>2197.242370461145</v>
       </c>
       <c r="P19" t="n">
-        <v>2542.79701450193</v>
+        <v>2544.749264431486</v>
       </c>
       <c r="Q19" t="n">
-        <v>2710.989789366262</v>
+        <v>2712.942039295818</v>
       </c>
       <c r="R19" t="n">
-        <v>2710.989789366262</v>
+        <v>2712.942039295818</v>
       </c>
       <c r="S19" t="n">
-        <v>2692.750620323578</v>
+        <v>2553.700670593815</v>
       </c>
       <c r="T19" t="n">
-        <v>2446.871173902033</v>
+        <v>2307.82122417227</v>
       </c>
       <c r="U19" t="n">
-        <v>2168.438173155138</v>
+        <v>2029.388223425375</v>
       </c>
       <c r="V19" t="n">
-        <v>1881.482665025568</v>
+        <v>1742.432715295806</v>
       </c>
       <c r="W19" t="n">
-        <v>1609.45626061186</v>
+        <v>1742.432715295806</v>
       </c>
       <c r="X19" t="n">
-        <v>1364.064505945272</v>
+        <v>1497.040960629218</v>
       </c>
       <c r="Y19" t="n">
-        <v>1136.644835259381</v>
+        <v>1269.621289943327</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2520.969386844475</v>
+        <v>2522.504847401168</v>
       </c>
       <c r="C20" t="n">
-        <v>2082.826914027899</v>
+        <v>2084.362374584591</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.917129202339</v>
+        <v>1648.452589759036</v>
       </c>
       <c r="E20" t="n">
-        <v>1213.142384360634</v>
+        <v>1214.677844917331</v>
       </c>
       <c r="F20" t="n">
-        <v>785.2749547698421</v>
+        <v>786.8104153265388</v>
       </c>
       <c r="G20" t="n">
-        <v>383.877123393106</v>
+        <v>385.4125839498026</v>
       </c>
       <c r="H20" t="n">
-        <v>94.74696883632227</v>
+        <v>96.2824293930189</v>
       </c>
       <c r="I20" t="n">
-        <v>94.33017946346227</v>
+        <v>96.2824293930189</v>
       </c>
       <c r="J20" t="n">
-        <v>452.1103875997784</v>
+        <v>531.5371168459368</v>
       </c>
       <c r="K20" t="n">
-        <v>1286.460679557956</v>
+        <v>1365.887408804115</v>
       </c>
       <c r="L20" t="n">
-        <v>2361.520645810815</v>
+        <v>2440.947375056974</v>
       </c>
       <c r="M20" t="n">
-        <v>2361.520645810815</v>
+        <v>2440.947375056974</v>
       </c>
       <c r="N20" t="n">
-        <v>2361.520645810815</v>
+        <v>2440.947375056974</v>
       </c>
       <c r="O20" t="n">
-        <v>3341.700312381122</v>
+        <v>3421.127041627281</v>
       </c>
       <c r="P20" t="n">
-        <v>4170.010187214518</v>
+        <v>4249.436916460677</v>
       </c>
       <c r="Q20" t="n">
-        <v>4716.508973173113</v>
+        <v>4795.935702419271</v>
       </c>
       <c r="R20" t="n">
-        <v>4716.508973173113</v>
+        <v>4814.121469650945</v>
       </c>
       <c r="S20" t="n">
-        <v>4632.85709935695</v>
+        <v>4814.121469650945</v>
       </c>
       <c r="T20" t="n">
-        <v>4412.789872229989</v>
+        <v>4594.054242523984</v>
       </c>
       <c r="U20" t="n">
-        <v>4153.567569547005</v>
+        <v>4543.705409662252</v>
       </c>
       <c r="V20" t="n">
-        <v>3790.950619480832</v>
+        <v>4181.088459596079</v>
       </c>
       <c r="W20" t="n">
-        <v>3386.095164891865</v>
+        <v>3776.233005007112</v>
       </c>
       <c r="X20" t="n">
-        <v>2966.952701471176</v>
+        <v>3357.090541586422</v>
       </c>
       <c r="Y20" t="n">
-        <v>2947.268957329383</v>
+        <v>2948.804417886075</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>600.5019244547551</v>
+        <v>602.4541743843117</v>
       </c>
       <c r="C21" t="n">
-        <v>494.0454632913974</v>
+        <v>495.997713220954</v>
       </c>
       <c r="D21" t="n">
-        <v>398.9551744379506</v>
+        <v>400.9074243675072</v>
       </c>
       <c r="E21" t="n">
-        <v>304.8347597649043</v>
+        <v>306.7870096944609</v>
       </c>
       <c r="F21" t="n">
-        <v>221.4509213810659</v>
+        <v>223.4031713106226</v>
       </c>
       <c r="G21" t="n">
-        <v>136.0658316472498</v>
+        <v>138.0180815768064</v>
       </c>
       <c r="H21" t="n">
-        <v>94.33017946346227</v>
+        <v>96.2824293930189</v>
       </c>
       <c r="I21" t="n">
-        <v>120.3938526239199</v>
+        <v>122.3461025534765</v>
       </c>
       <c r="J21" t="n">
-        <v>444.9521775901322</v>
+        <v>446.9044275196888</v>
       </c>
       <c r="K21" t="n">
-        <v>1099.658224215856</v>
+        <v>446.9044275196888</v>
       </c>
       <c r="L21" t="n">
-        <v>1099.658224215856</v>
+        <v>446.9044275196888</v>
       </c>
       <c r="M21" t="n">
-        <v>1099.658224215856</v>
+        <v>446.9044275196888</v>
       </c>
       <c r="N21" t="n">
-        <v>1099.658224215856</v>
+        <v>446.9044275196888</v>
       </c>
       <c r="O21" t="n">
-        <v>1099.658224215856</v>
+        <v>446.9044275196888</v>
       </c>
       <c r="P21" t="n">
-        <v>1099.658224215856</v>
+        <v>1101.610474145413</v>
       </c>
       <c r="Q21" t="n">
-        <v>1640.397162847931</v>
+        <v>1642.349412777488</v>
       </c>
       <c r="R21" t="n">
-        <v>1757.569940942271</v>
+        <v>1759.522190871828</v>
       </c>
       <c r="S21" t="n">
-        <v>1694.114503390654</v>
+        <v>1696.066753320211</v>
       </c>
       <c r="T21" t="n">
-        <v>1563.935859721256</v>
+        <v>1565.888109650813</v>
       </c>
       <c r="U21" t="n">
-        <v>1387.599312721224</v>
+        <v>1389.551562650781</v>
       </c>
       <c r="V21" t="n">
-        <v>1188.481794783223</v>
+        <v>1190.43404471278</v>
       </c>
       <c r="W21" t="n">
-        <v>1003.159040516417</v>
+        <v>1005.111290445974</v>
       </c>
       <c r="X21" t="n">
-        <v>848.2916047552975</v>
+        <v>850.2438546848541</v>
       </c>
       <c r="Y21" t="n">
-        <v>721.8058255345182</v>
+        <v>723.7580754640749</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>944.8262165403935</v>
+        <v>839.9913112814652</v>
       </c>
       <c r="C22" t="n">
-        <v>772.2645050236185</v>
+        <v>667.4295997646901</v>
       </c>
       <c r="D22" t="n">
-        <v>606.3865122251412</v>
+        <v>501.5516069662128</v>
       </c>
       <c r="E22" t="n">
-        <v>436.6285084758784</v>
+        <v>501.5516069662128</v>
       </c>
       <c r="F22" t="n">
-        <v>259.9214544376346</v>
+        <v>324.8445529279691</v>
       </c>
       <c r="G22" t="n">
-        <v>94.33017946346227</v>
+        <v>324.8445529279691</v>
       </c>
       <c r="H22" t="n">
-        <v>94.33017946346227</v>
+        <v>184.9423786183436</v>
       </c>
       <c r="I22" t="n">
-        <v>94.33017946346227</v>
+        <v>96.2824293930189</v>
       </c>
       <c r="J22" t="n">
-        <v>180.9098646281521</v>
+        <v>182.8621145577088</v>
       </c>
       <c r="K22" t="n">
-        <v>455.6683191992877</v>
+        <v>457.6205691288444</v>
       </c>
       <c r="L22" t="n">
-        <v>873.8782009672487</v>
+        <v>875.8304508968054</v>
       </c>
       <c r="M22" t="n">
-        <v>1333.362068148162</v>
+        <v>1335.314318077718</v>
       </c>
       <c r="N22" t="n">
-        <v>1775.620871305806</v>
+        <v>1777.573121235363</v>
       </c>
       <c r="O22" t="n">
-        <v>2195.290120531588</v>
+        <v>2197.242370461145</v>
       </c>
       <c r="P22" t="n">
-        <v>2542.79701450193</v>
+        <v>2544.749264431486</v>
       </c>
       <c r="Q22" t="n">
-        <v>2710.989789366262</v>
+        <v>2712.942039295818</v>
       </c>
       <c r="R22" t="n">
-        <v>2710.989789366262</v>
+        <v>2691.52421800119</v>
       </c>
       <c r="S22" t="n">
-        <v>2692.750620323578</v>
+        <v>2587.915715064649</v>
       </c>
       <c r="T22" t="n">
-        <v>2446.871173902033</v>
+        <v>2342.036268643104</v>
       </c>
       <c r="U22" t="n">
-        <v>2168.438173155138</v>
+        <v>2063.60326789621</v>
       </c>
       <c r="V22" t="n">
-        <v>1881.482665025568</v>
+        <v>1776.64775976664</v>
       </c>
       <c r="W22" t="n">
-        <v>1609.45626061186</v>
+        <v>1504.621355352932</v>
       </c>
       <c r="X22" t="n">
-        <v>1364.064505945272</v>
+        <v>1259.229600686344</v>
       </c>
       <c r="Y22" t="n">
-        <v>1136.644835259381</v>
+        <v>1031.809930000452</v>
       </c>
     </row>
     <row r="23">
@@ -5975,13 +5975,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -5996,7 +5996,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N23" t="n">
         <v>2588.899621423627</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.7568773477109</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309358</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D25" t="n">
-        <v>614.3171730324584</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E25" t="n">
-        <v>444.5591692831957</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F25" t="n">
-        <v>267.852115244952</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G25" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H25" t="n">
         <v>102.2608402707796</v>
@@ -6172,25 +6172,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T25" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U25" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V25" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W25" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X25" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y25" t="n">
-        <v>1144.575496066698</v>
+        <v>1111.915958859548</v>
       </c>
     </row>
     <row r="26">
@@ -6212,13 +6212,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
@@ -6230,10 +6230,10 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>1371.865819681875</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>1463.16863798718</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N26" t="n">
         <v>2588.899621423627</v>
@@ -6306,19 +6306,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L27" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M27" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N27" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O27" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P27" t="n">
         <v>1107.588885023173</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>811.7546776883919</v>
+        <v>1068.769857140658</v>
       </c>
       <c r="C28" t="n">
-        <v>639.1929661716168</v>
+        <v>896.2081456238831</v>
       </c>
       <c r="D28" t="n">
-        <v>473.3149733731395</v>
+        <v>730.3301528254058</v>
       </c>
       <c r="E28" t="n">
-        <v>303.5569696238769</v>
+        <v>560.5721490761431</v>
       </c>
       <c r="F28" t="n">
-        <v>267.852115244952</v>
+        <v>383.8650950378993</v>
       </c>
       <c r="G28" t="n">
-        <v>102.2608402707796</v>
+        <v>218.273820063727</v>
       </c>
       <c r="H28" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J28" t="n">
-        <v>188.8405254354693</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K28" t="n">
-        <v>463.5989800066049</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L28" t="n">
-        <v>881.808861774566</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M28" t="n">
         <v>1341.292728955479</v>
@@ -6406,28 +6406,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S28" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T28" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U28" t="n">
-        <v>2035.366634303136</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.411126173567</v>
+        <v>2005.426305625833</v>
       </c>
       <c r="W28" t="n">
-        <v>1476.384721759858</v>
+        <v>1733.399901212125</v>
       </c>
       <c r="X28" t="n">
-        <v>1230.992967093271</v>
+        <v>1488.008146545537</v>
       </c>
       <c r="Y28" t="n">
-        <v>1003.573296407379</v>
+        <v>1260.588475859645</v>
       </c>
     </row>
     <row r="29">
@@ -6449,13 +6449,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6470,7 +6470,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N29" t="n">
         <v>2588.899621423627</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.7810588588588</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>754.219347342084</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>754.219347342084</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>584.4613435928212</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
         <v>102.2608402707796</v>
@@ -6643,28 +6643,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173558</v>
       </c>
       <c r="S31" t="n">
-        <v>2674.705462642043</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T31" t="n">
-        <v>2428.826016220498</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
-        <v>2150.393015473604</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>1863.437507344034</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
-        <v>1591.411102930325</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>1346.019348263738</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>1118.599677577846</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6686,13 +6686,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6707,7 +6707,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N32" t="n">
         <v>2588.899621423627</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.756877347711</v>
+        <v>970.9960463903951</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309359</v>
+        <v>798.4343348736201</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324586</v>
+        <v>632.5563420751428</v>
       </c>
       <c r="E34" t="n">
-        <v>444.5591692831958</v>
+        <v>462.7983383258801</v>
       </c>
       <c r="F34" t="n">
-        <v>267.852115244952</v>
+        <v>286.0912842876363</v>
       </c>
       <c r="G34" t="n">
-        <v>102.2608402707796</v>
+        <v>120.500009313464</v>
       </c>
       <c r="H34" t="n">
         <v>102.2608402707796</v>
@@ -6883,25 +6883,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T34" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752035</v>
       </c>
       <c r="U34" t="n">
-        <v>2176.368833962455</v>
+        <v>2194.60800300514</v>
       </c>
       <c r="V34" t="n">
-        <v>1889.413325832886</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W34" t="n">
-        <v>1617.386921419177</v>
+        <v>1635.626090461862</v>
       </c>
       <c r="X34" t="n">
-        <v>1371.99516675259</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y34" t="n">
-        <v>1144.575496066698</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2425.39087720671</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C35" t="n">
-        <v>2003.64811180301</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D35" t="n">
-        <v>1584.13803439033</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E35" t="n">
-        <v>1166.762996961501</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>755.2952747835852</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>370.2971508197255</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>97.56670367581786</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
-        <v>97.56670367581786</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>532.8213911287357</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>1367.171683086914</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L35" t="n">
-        <v>2442.231649339773</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M35" t="n">
-        <v>2442.231649339773</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N35" t="n">
-        <v>2442.231649339773</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O35" t="n">
-        <v>3422.411315910079</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P35" t="n">
-        <v>4250.721190743476</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q35" t="n">
-        <v>4797.21997670207</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R35" t="n">
-        <v>4878.335183790893</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
-        <v>4811.083017387606</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T35" t="n">
-        <v>4607.415497673521</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U35" t="n">
-        <v>4364.592902403414</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V35" t="n">
-        <v>4018.375659750116</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3629.919912574026</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
-        <v>3227.177156566212</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2835.290740278742</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>603.7384486671107</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C36" t="n">
-        <v>497.2819875037529</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D36" t="n">
-        <v>402.1916986503062</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E36" t="n">
-        <v>308.0712839772599</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F36" t="n">
-        <v>224.6874455934215</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G36" t="n">
-        <v>139.3023558596054</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H36" t="n">
-        <v>97.56670367581786</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>123.6303768362755</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>448.1887018024878</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>448.1887018024878</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L36" t="n">
-        <v>448.1887018024878</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M36" t="n">
-        <v>448.1887018024878</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N36" t="n">
-        <v>448.1887018024878</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O36" t="n">
-        <v>448.1887018024878</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P36" t="n">
-        <v>1102.894748428211</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
-        <v>1643.633687060287</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
-        <v>1760.806465154627</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S36" t="n">
-        <v>1697.35102760301</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T36" t="n">
-        <v>1567.172383933611</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U36" t="n">
-        <v>1390.83583693358</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V36" t="n">
-        <v>1191.718318995579</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W36" t="n">
-        <v>1006.395564728773</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X36" t="n">
-        <v>851.5281289676531</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y36" t="n">
-        <v>725.0423497468738</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1061.826912397567</v>
+        <v>952.7568773477109</v>
       </c>
       <c r="C37" t="n">
-        <v>905.6649082936676</v>
+        <v>780.1951658309358</v>
       </c>
       <c r="D37" t="n">
-        <v>756.1866229080665</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E37" t="n">
-        <v>602.82832657168</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F37" t="n">
-        <v>442.5209799463121</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G37" t="n">
-        <v>293.3294123850159</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H37" t="n">
-        <v>169.8269454882665</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I37" t="n">
-        <v>97.56670367581786</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J37" t="n">
-        <v>200.2197420758678</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K37" t="n">
-        <v>491.0515498823631</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L37" t="n">
-        <v>925.3347848856839</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M37" t="n">
-        <v>1400.892005301957</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N37" t="n">
-        <v>1859.224161694961</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O37" t="n">
-        <v>2294.966764156103</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P37" t="n">
-        <v>2658.547011361804</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q37" t="n">
-        <v>2842.813139461496</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2837.795025579744</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2694.953364290618</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T37" t="n">
-        <v>2465.473625281949</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U37" t="n">
-        <v>2203.440331947931</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V37" t="n">
-        <v>1932.884531231237</v>
+        <v>1889.413325832885</v>
       </c>
       <c r="W37" t="n">
-        <v>1677.257834230405</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X37" t="n">
-        <v>1448.265786976693</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y37" t="n">
-        <v>1237.245823703677</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2425.39087720671</v>
+        <v>2454.261399483848</v>
       </c>
       <c r="C38" t="n">
-        <v>2003.64811180301</v>
+        <v>2027.925596445148</v>
       </c>
       <c r="D38" t="n">
-        <v>1584.13803439033</v>
+        <v>1603.82248139747</v>
       </c>
       <c r="E38" t="n">
-        <v>1166.762996961502</v>
+        <v>1181.854406333642</v>
       </c>
       <c r="F38" t="n">
-        <v>755.2952747835855</v>
+        <v>765.7936465207265</v>
       </c>
       <c r="G38" t="n">
-        <v>370.2971508197255</v>
+        <v>376.2024849218673</v>
       </c>
       <c r="H38" t="n">
-        <v>97.56670367581786</v>
+        <v>98.87900014296049</v>
       </c>
       <c r="I38" t="n">
-        <v>97.56670367581786</v>
+        <v>98.87900014296049</v>
       </c>
       <c r="J38" t="n">
-        <v>532.8213911287357</v>
+        <v>534.1336875958783</v>
       </c>
       <c r="K38" t="n">
-        <v>1367.171683086914</v>
+        <v>1368.483979554056</v>
       </c>
       <c r="L38" t="n">
-        <v>2442.231649339773</v>
+        <v>2443.543945806915</v>
       </c>
       <c r="M38" t="n">
-        <v>2442.231649339773</v>
+        <v>2443.543945806915</v>
       </c>
       <c r="N38" t="n">
-        <v>2442.231649339773</v>
+        <v>2443.543945806915</v>
       </c>
       <c r="O38" t="n">
-        <v>3422.411315910079</v>
+        <v>3399.987281602977</v>
       </c>
       <c r="P38" t="n">
-        <v>4250.721190743476</v>
+        <v>4228.297156436373</v>
       </c>
       <c r="Q38" t="n">
-        <v>4797.21997670207</v>
+        <v>4774.795942394968</v>
       </c>
       <c r="R38" t="n">
-        <v>4878.335183790893</v>
+        <v>4943.950007148024</v>
       </c>
       <c r="S38" t="n">
-        <v>4811.083017387607</v>
+        <v>4872.104803109738</v>
       </c>
       <c r="T38" t="n">
-        <v>4607.415497673522</v>
+        <v>4663.844245760653</v>
       </c>
       <c r="U38" t="n">
-        <v>4364.592902403415</v>
+        <v>4416.428612855547</v>
       </c>
       <c r="V38" t="n">
-        <v>4018.375659750117</v>
+        <v>4065.61833256725</v>
       </c>
       <c r="W38" t="n">
-        <v>3629.919912574027</v>
+        <v>3672.56954775616</v>
       </c>
       <c r="X38" t="n">
-        <v>3227.177156566214</v>
+        <v>3265.233754113348</v>
       </c>
       <c r="Y38" t="n">
-        <v>2835.290740278742</v>
+        <v>2868.754300190878</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>603.7384486671107</v>
+        <v>605.0507451342532</v>
       </c>
       <c r="C39" t="n">
-        <v>497.2819875037529</v>
+        <v>498.5942839708956</v>
       </c>
       <c r="D39" t="n">
-        <v>402.1916986503062</v>
+        <v>403.5039951174488</v>
       </c>
       <c r="E39" t="n">
-        <v>308.0712839772599</v>
+        <v>309.3835804444025</v>
       </c>
       <c r="F39" t="n">
-        <v>224.6874455934215</v>
+        <v>225.9997420605641</v>
       </c>
       <c r="G39" t="n">
-        <v>139.3023558596054</v>
+        <v>140.614652326748</v>
       </c>
       <c r="H39" t="n">
-        <v>97.56670367581786</v>
+        <v>98.87900014296049</v>
       </c>
       <c r="I39" t="n">
-        <v>123.6303768362755</v>
+        <v>124.9426733034181</v>
       </c>
       <c r="J39" t="n">
-        <v>448.1887018024878</v>
+        <v>449.5009982696304</v>
       </c>
       <c r="K39" t="n">
-        <v>1102.894748428211</v>
+        <v>449.5009982696304</v>
       </c>
       <c r="L39" t="n">
-        <v>1102.894748428211</v>
+        <v>449.5009982696304</v>
       </c>
       <c r="M39" t="n">
-        <v>1102.894748428211</v>
+        <v>449.5009982696304</v>
       </c>
       <c r="N39" t="n">
-        <v>1102.894748428211</v>
+        <v>449.5009982696304</v>
       </c>
       <c r="O39" t="n">
-        <v>1102.894748428211</v>
+        <v>449.5009982696304</v>
       </c>
       <c r="P39" t="n">
-        <v>1102.894748428211</v>
+        <v>1104.207044895354</v>
       </c>
       <c r="Q39" t="n">
-        <v>1643.633687060287</v>
+        <v>1644.94598352743</v>
       </c>
       <c r="R39" t="n">
-        <v>1760.806465154627</v>
+        <v>1762.118761621769</v>
       </c>
       <c r="S39" t="n">
-        <v>1697.35102760301</v>
+        <v>1698.663324070152</v>
       </c>
       <c r="T39" t="n">
-        <v>1567.172383933611</v>
+        <v>1568.484680400754</v>
       </c>
       <c r="U39" t="n">
-        <v>1390.83583693358</v>
+        <v>1392.148133400722</v>
       </c>
       <c r="V39" t="n">
-        <v>1191.718318995579</v>
+        <v>1193.030615462722</v>
       </c>
       <c r="W39" t="n">
-        <v>1006.395564728773</v>
+        <v>1007.707861195916</v>
       </c>
       <c r="X39" t="n">
-        <v>851.5281289676531</v>
+        <v>852.8404254347956</v>
       </c>
       <c r="Y39" t="n">
-        <v>725.0423497468738</v>
+        <v>726.3546462140164</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1061.826912397567</v>
+        <v>985.7887806612137</v>
       </c>
       <c r="C40" t="n">
-        <v>905.6649082936676</v>
+        <v>825.0337389223156</v>
       </c>
       <c r="D40" t="n">
-        <v>756.1866229080665</v>
+        <v>670.9624159017152</v>
       </c>
       <c r="E40" t="n">
-        <v>602.8283265716799</v>
+        <v>513.0110819303294</v>
       </c>
       <c r="F40" t="n">
-        <v>442.5209799463123</v>
+        <v>348.1106976699625</v>
       </c>
       <c r="G40" t="n">
-        <v>293.329412385016</v>
+        <v>194.3260924736676</v>
       </c>
       <c r="H40" t="n">
-        <v>169.8269454882666</v>
+        <v>98.87900014296049</v>
       </c>
       <c r="I40" t="n">
-        <v>97.56670367581786</v>
+        <v>98.87900014296049</v>
       </c>
       <c r="J40" t="n">
-        <v>200.2197420758676</v>
+        <v>197.0304023569475</v>
       </c>
       <c r="K40" t="n">
-        <v>491.0515498823631</v>
+        <v>483.3605739773803</v>
       </c>
       <c r="L40" t="n">
-        <v>925.3347848856844</v>
+        <v>913.1421727946386</v>
       </c>
       <c r="M40" t="n">
-        <v>1400.892005301957</v>
+        <v>1384.197757024849</v>
       </c>
       <c r="N40" t="n">
-        <v>1859.224161694962</v>
+        <v>1838.02827723179</v>
       </c>
       <c r="O40" t="n">
-        <v>2294.966764156103</v>
+        <v>2269.269243506868</v>
       </c>
       <c r="P40" t="n">
-        <v>2658.547011361805</v>
+        <v>2628.347854526507</v>
       </c>
       <c r="Q40" t="n">
-        <v>2842.813139461497</v>
+        <v>2808.112346440137</v>
       </c>
       <c r="R40" t="n">
-        <v>2837.795025579745</v>
+        <v>2798.501194923385</v>
       </c>
       <c r="S40" t="n">
-        <v>2694.953364290618</v>
+        <v>2651.066495999259</v>
       </c>
       <c r="T40" t="n">
-        <v>2465.473625281949</v>
+        <v>2416.993719355592</v>
       </c>
       <c r="U40" t="n">
-        <v>2203.44033194793</v>
+        <v>2150.367388386574</v>
       </c>
       <c r="V40" t="n">
-        <v>1932.884531231237</v>
+        <v>1875.218550034881</v>
       </c>
       <c r="W40" t="n">
-        <v>1677.257834230405</v>
+        <v>1614.99881539905</v>
       </c>
       <c r="X40" t="n">
-        <v>1448.265786976693</v>
+        <v>1381.413730510339</v>
       </c>
       <c r="Y40" t="n">
-        <v>1237.245823703677</v>
+        <v>1165.800729602324</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2425.39087720671</v>
+        <v>2454.261399483848</v>
       </c>
       <c r="C41" t="n">
-        <v>2003.64811180301</v>
+        <v>2027.925596445149</v>
       </c>
       <c r="D41" t="n">
-        <v>1584.13803439033</v>
+        <v>1603.82248139747</v>
       </c>
       <c r="E41" t="n">
-        <v>1166.762996961501</v>
+        <v>1181.854406333642</v>
       </c>
       <c r="F41" t="n">
-        <v>755.2952747835853</v>
+        <v>765.7936465207267</v>
       </c>
       <c r="G41" t="n">
-        <v>370.2971508197254</v>
+        <v>376.2024849218673</v>
       </c>
       <c r="H41" t="n">
-        <v>97.56670367581786</v>
+        <v>98.87900014296049</v>
       </c>
       <c r="I41" t="n">
-        <v>97.56670367581786</v>
+        <v>98.87900014296049</v>
       </c>
       <c r="J41" t="n">
-        <v>532.8213911287357</v>
+        <v>534.1336875958783</v>
       </c>
       <c r="K41" t="n">
-        <v>532.8213911287357</v>
+        <v>1368.483979554056</v>
       </c>
       <c r="L41" t="n">
-        <v>532.8213911287357</v>
+        <v>2419.807615032671</v>
       </c>
       <c r="M41" t="n">
-        <v>1689.869226339287</v>
+        <v>2419.807615032671</v>
       </c>
       <c r="N41" t="n">
-        <v>2354.19279167554</v>
+        <v>2419.807615032671</v>
       </c>
       <c r="O41" t="n">
-        <v>3334.372458245846</v>
+        <v>3399.987281602977</v>
       </c>
       <c r="P41" t="n">
-        <v>4162.682333079242</v>
+        <v>4228.297156436373</v>
       </c>
       <c r="Q41" t="n">
-        <v>4709.181119037837</v>
+        <v>4774.795942394968</v>
       </c>
       <c r="R41" t="n">
-        <v>4878.335183790893</v>
+        <v>4943.950007148024</v>
       </c>
       <c r="S41" t="n">
-        <v>4811.083017387606</v>
+        <v>4872.104803109738</v>
       </c>
       <c r="T41" t="n">
-        <v>4607.415497673521</v>
+        <v>4663.844245760654</v>
       </c>
       <c r="U41" t="n">
-        <v>4364.592902403414</v>
+        <v>4416.428612855548</v>
       </c>
       <c r="V41" t="n">
-        <v>4018.375659750116</v>
+        <v>4065.618332567251</v>
       </c>
       <c r="W41" t="n">
-        <v>3629.919912574026</v>
+        <v>3672.569547756161</v>
       </c>
       <c r="X41" t="n">
-        <v>3227.177156566212</v>
+        <v>3265.233754113349</v>
       </c>
       <c r="Y41" t="n">
-        <v>2835.290740278741</v>
+        <v>2868.754300190879</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>603.7384486671107</v>
+        <v>605.0507451342532</v>
       </c>
       <c r="C42" t="n">
-        <v>497.2819875037529</v>
+        <v>498.5942839708956</v>
       </c>
       <c r="D42" t="n">
-        <v>402.1916986503062</v>
+        <v>403.5039951174488</v>
       </c>
       <c r="E42" t="n">
-        <v>308.0712839772599</v>
+        <v>309.3835804444025</v>
       </c>
       <c r="F42" t="n">
-        <v>224.6874455934215</v>
+        <v>225.9997420605641</v>
       </c>
       <c r="G42" t="n">
-        <v>139.3023558596054</v>
+        <v>140.614652326748</v>
       </c>
       <c r="H42" t="n">
-        <v>97.56670367581786</v>
+        <v>98.87900014296049</v>
       </c>
       <c r="I42" t="n">
-        <v>123.6303768362755</v>
+        <v>124.9426733034181</v>
       </c>
       <c r="J42" t="n">
-        <v>448.1887018024878</v>
+        <v>449.5009982696304</v>
       </c>
       <c r="K42" t="n">
-        <v>448.1887018024878</v>
+        <v>449.5009982696304</v>
       </c>
       <c r="L42" t="n">
-        <v>448.1887018024878</v>
+        <v>449.5009982696304</v>
       </c>
       <c r="M42" t="n">
-        <v>448.1887018024878</v>
+        <v>449.5009982696304</v>
       </c>
       <c r="N42" t="n">
-        <v>448.1887018024878</v>
+        <v>449.5009982696304</v>
       </c>
       <c r="O42" t="n">
-        <v>448.1887018024878</v>
+        <v>449.5009982696304</v>
       </c>
       <c r="P42" t="n">
-        <v>1102.894748428211</v>
+        <v>1104.207044895354</v>
       </c>
       <c r="Q42" t="n">
-        <v>1643.633687060287</v>
+        <v>1644.94598352743</v>
       </c>
       <c r="R42" t="n">
-        <v>1760.806465154627</v>
+        <v>1762.118761621769</v>
       </c>
       <c r="S42" t="n">
-        <v>1697.35102760301</v>
+        <v>1698.663324070152</v>
       </c>
       <c r="T42" t="n">
-        <v>1567.172383933611</v>
+        <v>1568.484680400754</v>
       </c>
       <c r="U42" t="n">
-        <v>1390.83583693358</v>
+        <v>1392.148133400722</v>
       </c>
       <c r="V42" t="n">
-        <v>1191.718318995579</v>
+        <v>1193.030615462722</v>
       </c>
       <c r="W42" t="n">
-        <v>1006.395564728773</v>
+        <v>1007.707861195916</v>
       </c>
       <c r="X42" t="n">
-        <v>851.5281289676531</v>
+        <v>852.8404254347956</v>
       </c>
       <c r="Y42" t="n">
-        <v>725.0423497468738</v>
+        <v>726.3546462140164</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1061.826912397567</v>
+        <v>985.7887806612141</v>
       </c>
       <c r="C43" t="n">
-        <v>905.6649082936681</v>
+        <v>825.033738922316</v>
       </c>
       <c r="D43" t="n">
-        <v>756.186622908067</v>
+        <v>670.9624159017155</v>
       </c>
       <c r="E43" t="n">
-        <v>602.8283265716803</v>
+        <v>513.0110819303295</v>
       </c>
       <c r="F43" t="n">
-        <v>442.5209799463128</v>
+        <v>348.1106976699626</v>
       </c>
       <c r="G43" t="n">
-        <v>293.3294123850167</v>
+        <v>194.3260924736672</v>
       </c>
       <c r="H43" t="n">
-        <v>169.8269454882664</v>
+        <v>175.7322795904082</v>
       </c>
       <c r="I43" t="n">
-        <v>97.56670367581786</v>
+        <v>98.87900014296049</v>
       </c>
       <c r="J43" t="n">
-        <v>200.2197420758676</v>
+        <v>197.0304023569475</v>
       </c>
       <c r="K43" t="n">
-        <v>491.0515498823631</v>
+        <v>483.3605739773803</v>
       </c>
       <c r="L43" t="n">
-        <v>925.334784885684</v>
+        <v>913.1421727946384</v>
       </c>
       <c r="M43" t="n">
-        <v>1400.892005301957</v>
+        <v>1384.197757024848</v>
       </c>
       <c r="N43" t="n">
-        <v>1859.224161694961</v>
+        <v>1838.02827723179</v>
       </c>
       <c r="O43" t="n">
-        <v>2294.966764156103</v>
+        <v>2269.269243506869</v>
       </c>
       <c r="P43" t="n">
-        <v>2658.547011361805</v>
+        <v>2628.347854526508</v>
       </c>
       <c r="Q43" t="n">
-        <v>2842.813139461497</v>
+        <v>2808.112346440138</v>
       </c>
       <c r="R43" t="n">
-        <v>2837.795025579745</v>
+        <v>2798.501194923386</v>
       </c>
       <c r="S43" t="n">
-        <v>2694.953364290618</v>
+        <v>2651.06649599926</v>
       </c>
       <c r="T43" t="n">
-        <v>2465.473625281949</v>
+        <v>2416.993719355592</v>
       </c>
       <c r="U43" t="n">
-        <v>2203.44033194793</v>
+        <v>2150.367388386574</v>
       </c>
       <c r="V43" t="n">
-        <v>1932.884531231237</v>
+        <v>1875.218550034881</v>
       </c>
       <c r="W43" t="n">
-        <v>1677.257834230405</v>
+        <v>1614.99881539905</v>
       </c>
       <c r="X43" t="n">
-        <v>1448.265786976693</v>
+        <v>1381.413730510339</v>
       </c>
       <c r="Y43" t="n">
-        <v>1237.245823703678</v>
+        <v>1165.800729602324</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2425.39087720671</v>
+        <v>2454.261399483848</v>
       </c>
       <c r="C44" t="n">
-        <v>2003.64811180301</v>
+        <v>2027.925596445149</v>
       </c>
       <c r="D44" t="n">
-        <v>1584.13803439033</v>
+        <v>1603.82248139747</v>
       </c>
       <c r="E44" t="n">
-        <v>1166.762996961502</v>
+        <v>1181.854406333642</v>
       </c>
       <c r="F44" t="n">
-        <v>755.2952747835855</v>
+        <v>765.7936465207267</v>
       </c>
       <c r="G44" t="n">
-        <v>370.2971508197255</v>
+        <v>376.2024849218673</v>
       </c>
       <c r="H44" t="n">
-        <v>97.56670367581786</v>
+        <v>98.87900014296051</v>
       </c>
       <c r="I44" t="n">
-        <v>97.56670367581786</v>
+        <v>98.87900014296051</v>
       </c>
       <c r="J44" t="n">
-        <v>532.8213911287357</v>
+        <v>534.1336875958783</v>
       </c>
       <c r="K44" t="n">
-        <v>1367.171683086914</v>
+        <v>1368.483979554056</v>
       </c>
       <c r="L44" t="n">
-        <v>2442.231649339773</v>
+        <v>2419.807615032672</v>
       </c>
       <c r="M44" t="n">
-        <v>3182.502666508936</v>
+        <v>2419.807615032672</v>
       </c>
       <c r="N44" t="n">
-        <v>3182.502666508936</v>
+        <v>2419.807615032672</v>
       </c>
       <c r="O44" t="n">
-        <v>4162.682333079242</v>
+        <v>3399.987281602978</v>
       </c>
       <c r="P44" t="n">
-        <v>4162.682333079242</v>
+        <v>4228.297156436374</v>
       </c>
       <c r="Q44" t="n">
-        <v>4709.181119037837</v>
+        <v>4774.795942394969</v>
       </c>
       <c r="R44" t="n">
-        <v>4878.335183790893</v>
+        <v>4943.950007148025</v>
       </c>
       <c r="S44" t="n">
-        <v>4811.083017387607</v>
+        <v>4872.104803109739</v>
       </c>
       <c r="T44" t="n">
-        <v>4607.415497673521</v>
+        <v>4663.844245760654</v>
       </c>
       <c r="U44" t="n">
-        <v>4364.592902403414</v>
+        <v>4416.428612855548</v>
       </c>
       <c r="V44" t="n">
-        <v>4018.375659750116</v>
+        <v>4065.618332567251</v>
       </c>
       <c r="W44" t="n">
-        <v>3629.919912574026</v>
+        <v>3672.569547756161</v>
       </c>
       <c r="X44" t="n">
-        <v>3227.177156566213</v>
+        <v>3265.233754113349</v>
       </c>
       <c r="Y44" t="n">
-        <v>2835.290740278742</v>
+        <v>2868.754300190879</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>603.7384486671107</v>
+        <v>605.0507451342532</v>
       </c>
       <c r="C45" t="n">
-        <v>497.2819875037529</v>
+        <v>498.5942839708956</v>
       </c>
       <c r="D45" t="n">
-        <v>402.1916986503062</v>
+        <v>403.5039951174488</v>
       </c>
       <c r="E45" t="n">
-        <v>308.0712839772599</v>
+        <v>309.3835804444025</v>
       </c>
       <c r="F45" t="n">
-        <v>224.6874455934215</v>
+        <v>225.9997420605641</v>
       </c>
       <c r="G45" t="n">
-        <v>139.3023558596054</v>
+        <v>140.614652326748</v>
       </c>
       <c r="H45" t="n">
-        <v>97.56670367581786</v>
+        <v>98.87900014296051</v>
       </c>
       <c r="I45" t="n">
-        <v>123.6303768362755</v>
+        <v>124.9426733034181</v>
       </c>
       <c r="J45" t="n">
-        <v>448.1887018024878</v>
+        <v>449.5009982696304</v>
       </c>
       <c r="K45" t="n">
-        <v>448.1887018024878</v>
+        <v>449.5009982696304</v>
       </c>
       <c r="L45" t="n">
-        <v>448.1887018024878</v>
+        <v>449.5009982696304</v>
       </c>
       <c r="M45" t="n">
-        <v>448.1887018024878</v>
+        <v>449.5009982696304</v>
       </c>
       <c r="N45" t="n">
-        <v>448.1887018024878</v>
+        <v>449.5009982696304</v>
       </c>
       <c r="O45" t="n">
-        <v>448.1887018024878</v>
+        <v>449.5009982696304</v>
       </c>
       <c r="P45" t="n">
-        <v>1102.894748428211</v>
+        <v>1104.207044895354</v>
       </c>
       <c r="Q45" t="n">
-        <v>1643.633687060287</v>
+        <v>1644.94598352743</v>
       </c>
       <c r="R45" t="n">
-        <v>1760.806465154627</v>
+        <v>1762.118761621769</v>
       </c>
       <c r="S45" t="n">
-        <v>1697.35102760301</v>
+        <v>1698.663324070152</v>
       </c>
       <c r="T45" t="n">
-        <v>1567.172383933611</v>
+        <v>1568.484680400754</v>
       </c>
       <c r="U45" t="n">
-        <v>1390.83583693358</v>
+        <v>1392.148133400722</v>
       </c>
       <c r="V45" t="n">
-        <v>1191.718318995579</v>
+        <v>1193.030615462722</v>
       </c>
       <c r="W45" t="n">
-        <v>1006.395564728773</v>
+        <v>1007.707861195916</v>
       </c>
       <c r="X45" t="n">
-        <v>851.5281289676531</v>
+        <v>852.8404254347956</v>
       </c>
       <c r="Y45" t="n">
-        <v>725.0423497468738</v>
+        <v>726.3546462140164</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1061.826912397566</v>
+        <v>995.3999321779655</v>
       </c>
       <c r="C46" t="n">
-        <v>905.6649082936673</v>
+        <v>834.6448904390674</v>
       </c>
       <c r="D46" t="n">
-        <v>756.1866229080663</v>
+        <v>680.5735674184671</v>
       </c>
       <c r="E46" t="n">
-        <v>602.8283265716798</v>
+        <v>522.622233447081</v>
       </c>
       <c r="F46" t="n">
-        <v>442.5209799463119</v>
+        <v>357.7218491867143</v>
       </c>
       <c r="G46" t="n">
-        <v>293.3294123850158</v>
+        <v>203.9372439904187</v>
       </c>
       <c r="H46" t="n">
-        <v>169.8269454882664</v>
+        <v>175.7322795904083</v>
       </c>
       <c r="I46" t="n">
-        <v>97.56670367581786</v>
+        <v>98.87900014296051</v>
       </c>
       <c r="J46" t="n">
-        <v>200.2197420758678</v>
+        <v>197.0304023569475</v>
       </c>
       <c r="K46" t="n">
-        <v>491.0515498823633</v>
+        <v>483.3605739773803</v>
       </c>
       <c r="L46" t="n">
-        <v>925.3347848856843</v>
+        <v>913.1421727946386</v>
       </c>
       <c r="M46" t="n">
-        <v>1400.892005301957</v>
+        <v>1384.197757024849</v>
       </c>
       <c r="N46" t="n">
-        <v>1859.224161694962</v>
+        <v>1838.02827723179</v>
       </c>
       <c r="O46" t="n">
-        <v>2294.966764156103</v>
+        <v>2269.269243506869</v>
       </c>
       <c r="P46" t="n">
-        <v>2658.547011361804</v>
+        <v>2628.347854526508</v>
       </c>
       <c r="Q46" t="n">
-        <v>2842.813139461496</v>
+        <v>2808.112346440138</v>
       </c>
       <c r="R46" t="n">
-        <v>2837.795025579744</v>
+        <v>2808.112346440138</v>
       </c>
       <c r="S46" t="n">
-        <v>2694.953364290617</v>
+        <v>2660.677647516011</v>
       </c>
       <c r="T46" t="n">
-        <v>2465.473625281948</v>
+        <v>2426.604870872343</v>
       </c>
       <c r="U46" t="n">
-        <v>2203.44033194793</v>
+        <v>2159.978539903325</v>
       </c>
       <c r="V46" t="n">
-        <v>1932.884531231237</v>
+        <v>1884.829701551633</v>
       </c>
       <c r="W46" t="n">
-        <v>1677.257834230404</v>
+        <v>1624.609966915801</v>
       </c>
       <c r="X46" t="n">
-        <v>1448.265786976693</v>
+        <v>1391.02488202709</v>
       </c>
       <c r="Y46" t="n">
-        <v>1237.245823703677</v>
+        <v>1175.411881119076</v>
       </c>
     </row>
   </sheetData>
@@ -7976,10 +7976,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>88.52591951400984</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7991,16 +7991,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8058,7 +8058,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8070,13 +8070,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8134,19 +8134,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>58.38468441396117</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
@@ -8155,7 +8155,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,16 +8213,16 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -8231,10 +8231,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8374,25 +8374,25 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>150.1941962971706</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821538</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8453,22 +8453,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>596.6946901895874</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>6.7476371749799</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>596.6946901895876</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>596.6946901895875</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>64.62454882629493</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8608,10 +8608,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>254.4590810510516</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
@@ -8629,7 +8629,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8687,13 +8687,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>119.7739633014088</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>836.7994163466678</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8769,7 +8769,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8924,19 +8924,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>383.6571603916798</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>587.5568997613514</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -8945,10 +8945,10 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9000,7 +9000,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
         <v>327.836691885063</v>
@@ -9021,7 +9021,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>687.6461816022035</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9161,28 +9161,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>287.0306487267546</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>18.36946185017587</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -9237,10 +9237,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>187.4796750234298</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9258,7 +9258,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>828.0031984638366</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>361.3941496326426</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
         <v>842.7780726850283</v>
@@ -9422,7 +9422,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>18.36946185017587</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9480,22 +9480,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -9644,10 +9644,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9878,13 +9878,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>92.22506899525706</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -9954,22 +9954,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -10118,10 +10118,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10355,10 +10355,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10583,31 +10583,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>81.93455261497274</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10680,7 +10680,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -10835,7 +10835,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>990.0804712831379</v>
+        <v>966.1043795919818</v>
       </c>
       <c r="P38" t="n">
         <v>836.6766412458549</v>
@@ -10844,7 +10844,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>81.93455261497274</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,7 +10902,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10917,7 +10917,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -11060,16 +11060,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1061.943066140015</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>671.0339043800541</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11154,7 +11154,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -11300,10 +11300,10 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>1085.919157831171</v>
+        <v>1061.943066140016</v>
       </c>
       <c r="M44" t="n">
-        <v>747.7485021910738</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -11312,7 +11312,7 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157522</v>
@@ -11391,7 +11391,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -23306,13 +23306,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>128.0862761068116</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>153.3838663469876</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23425,13 +23425,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>35.15749310933361</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>87.77334973307141</v>
@@ -23464,7 +23464,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>139.5921776627259</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23510,10 +23510,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>3.773858668956095</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23552,10 +23552,10 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>25.31295371832104</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>139.5921776627259</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23732,13 +23732,13 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>384.3037342838326</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>290.0127116801714</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23750,7 +23750,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23905,7 +23905,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>8.789189859683814</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -23938,7 +23938,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>139.5921776627254</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23987,7 +23987,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24017,13 +24017,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>206.7847351230392</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24035,7 +24035,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>384.7163557629677</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24133,19 +24133,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>139.5921776627258</v>
+        <v>55.07653710780799</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24364,7 +24364,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24379,7 +24379,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>87.77334973307141</v>
@@ -24412,7 +24412,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627251</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>107.2592358276481</v>
       </c>
     </row>
     <row r="26">
@@ -24610,16 +24610,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>139.5921776627257</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>111.4236523045828</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -24886,7 +24886,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>113.8761173587632</v>
+        <v>139.5921776627463</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142717</v>
       </c>
       <c r="I34" t="n">
         <v>87.77334973307141</v>
@@ -25123,7 +25123,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627264</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25327,10 +25327,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>139.5921776627254</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>32.321928079031</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>76.08474665297327</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25801,7 +25801,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>108.4066747320047</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -26038,7 +26038,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>98.891634730421</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>9.515040001583685</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>783545.7604364436</v>
+        <v>786040.0608479771</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>783545.7604364436</v>
+        <v>786040.0608479771</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>785313.7714145514</v>
+        <v>786040.0608479771</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>732197.2783610312</v>
+        <v>724052.1608305</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>732197.2783610313</v>
+        <v>743320.2597192803</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>732197.2783610313</v>
+        <v>743320.2597192802</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>732197.278361031</v>
+        <v>743320.2597192803</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>777382.3701788709</v>
+        <v>777382.370178871</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>777382.3701788707</v>
+        <v>777382.3701788702</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>777382.3701788709</v>
+        <v>777382.3701788707</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>790390.1382739593</v>
+        <v>777382.3701788709</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>790390.1382739593</v>
+        <v>786746.8405675392</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>790390.1382739593</v>
+        <v>786746.8405675392</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>790390.1382739593</v>
+        <v>786746.8405675392</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>160844.1959671225</v>
+        <v>160844.1959671226</v>
       </c>
       <c r="C2" t="n">
         <v>160844.1959671225</v>
@@ -26320,16 +26320,16 @@
         <v>160844.1959671225</v>
       </c>
       <c r="E2" t="n">
-        <v>148870.2486655861</v>
+        <v>147214.184503623</v>
       </c>
       <c r="F2" t="n">
-        <v>148870.2486655861</v>
+        <v>151131.7716862831</v>
       </c>
       <c r="G2" t="n">
-        <v>148870.2486655861</v>
+        <v>151131.7716862831</v>
       </c>
       <c r="H2" t="n">
-        <v>148870.248665586</v>
+        <v>151131.7716862831</v>
       </c>
       <c r="I2" t="n">
         <v>158057.2752412056</v>
@@ -26338,22 +26338,22 @@
         <v>158057.2752412056</v>
       </c>
       <c r="K2" t="n">
-        <v>158057.2752412056</v>
+        <v>158057.2752412055</v>
       </c>
       <c r="L2" t="n">
         <v>158057.2752412056</v>
       </c>
       <c r="M2" t="n">
-        <v>160844.1959671226</v>
+        <v>158057.2752412056</v>
       </c>
       <c r="N2" t="n">
-        <v>160844.1959671225</v>
+        <v>160063.6679090521</v>
       </c>
       <c r="O2" t="n">
-        <v>160844.1959671227</v>
+        <v>160063.6679090521</v>
       </c>
       <c r="P2" t="n">
-        <v>160844.1959671225</v>
+        <v>160063.6679090521</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>223699.6985840448</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>53552.24939212156</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>173901.5468405938</v>
+        <v>147420.5464117493</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>12112.31405579387</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26384,22 +26384,22 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26361.615656783</v>
+        <v>19872.31248781262</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>174651.3487177061</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>43632.59295915216</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>143510.6200345144</v>
+        <v>123042.521043056</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>9350.882464078521</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>175300.239865111</v>
+        <v>122130.8532251353</v>
       </c>
       <c r="C4" t="n">
-        <v>175300.239865111</v>
+        <v>122130.8532251352</v>
       </c>
       <c r="D4" t="n">
-        <v>137612.6947546393</v>
+        <v>122130.8532251352</v>
       </c>
       <c r="E4" t="n">
-        <v>13417.20773267365</v>
+        <v>13267.95187343472</v>
       </c>
       <c r="F4" t="n">
-        <v>13417.20773267365</v>
+        <v>13621.03169637964</v>
       </c>
       <c r="G4" t="n">
-        <v>13417.20773267364</v>
+        <v>13621.03169637964</v>
       </c>
       <c r="H4" t="n">
-        <v>13417.20773267364</v>
+        <v>13621.03169637964</v>
       </c>
       <c r="I4" t="n">
         <v>14245.20557049264</v>
@@ -26448,16 +26448,16 @@
         <v>14245.20557049264</v>
       </c>
       <c r="M4" t="n">
-        <v>29443.15222066917</v>
+        <v>14245.20557049264</v>
       </c>
       <c r="N4" t="n">
-        <v>29443.15222066918</v>
+        <v>25191.6912670319</v>
       </c>
       <c r="O4" t="n">
-        <v>29443.15222066926</v>
+        <v>25191.69126703188</v>
       </c>
       <c r="P4" t="n">
-        <v>29443.15222066925</v>
+        <v>25191.69126703188</v>
       </c>
     </row>
     <row r="5">
@@ -26467,25 +26467,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>69906.63716352692</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>71690.93639223132</v>
+        <v>70604.44784155177</v>
       </c>
       <c r="F5" t="n">
-        <v>71690.93639223132</v>
+        <v>73174.64633869437</v>
       </c>
       <c r="G5" t="n">
-        <v>71690.93639223132</v>
+        <v>73174.64633869437</v>
       </c>
       <c r="H5" t="n">
-        <v>71690.93639223132</v>
+        <v>73174.64633869437</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26500,16 +26500,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>75515.61472608973</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>75515.61472608973</v>
+        <v>76130.68928099073</v>
       </c>
       <c r="O5" t="n">
-        <v>75515.61472608973</v>
+        <v>76130.68928099073</v>
       </c>
       <c r="P5" t="n">
-        <v>75515.61472608973</v>
+        <v>76130.68928099074</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-216072.1326949207</v>
+        <v>-259198.8804038152</v>
       </c>
       <c r="C6" t="n">
-        <v>-73880.83203521083</v>
+        <v>-35499.18181977044</v>
       </c>
       <c r="D6" t="n">
-        <v>-100227.3853431653</v>
+        <v>-35499.18181977041</v>
       </c>
       <c r="E6" t="n">
-        <v>-110139.4422999127</v>
+        <v>-84192.34505197525</v>
       </c>
       <c r="F6" t="n">
-        <v>63762.10454068109</v>
+        <v>52142.84272640829</v>
       </c>
       <c r="G6" t="n">
-        <v>63762.10454068112</v>
+        <v>64255.15678220216</v>
       </c>
       <c r="H6" t="n">
-        <v>63762.104540681</v>
+        <v>64255.1567822021</v>
       </c>
       <c r="I6" t="n">
-        <v>39732.21540813745</v>
+        <v>46198.29423772521</v>
       </c>
       <c r="J6" t="n">
-        <v>-44920.63428006973</v>
+        <v>-108580.7419921683</v>
       </c>
       <c r="K6" t="n">
-        <v>66093.83106492046</v>
+        <v>66070.60672553768</v>
       </c>
       <c r="L6" t="n">
-        <v>22461.23810576832</v>
+        <v>66070.60672553783</v>
       </c>
       <c r="M6" t="n">
-        <v>-87625.19101415065</v>
+        <v>-56971.91431751815</v>
       </c>
       <c r="N6" t="n">
-        <v>55885.4290203636</v>
+        <v>49383.90049646701</v>
       </c>
       <c r="O6" t="n">
-        <v>55885.42902036375</v>
+        <v>58734.7829605456</v>
       </c>
       <c r="P6" t="n">
-        <v>55885.42902036355</v>
+        <v>58734.78296054558</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>16.23571033874731</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>16.23571033874739</v>
+        <v>11.68860308009815</v>
       </c>
       <c r="O2" t="n">
-        <v>16.23571033874739</v>
+        <v>11.68860308009815</v>
       </c>
       <c r="P2" t="n">
-        <v>16.23571033874739</v>
+        <v>11.68860308009815</v>
       </c>
     </row>
     <row r="3">
@@ -26787,25 +26787,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>596.6946901895875</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1179.127243293278</v>
+        <v>1161.257365814996</v>
       </c>
       <c r="F4" t="n">
-        <v>1179.127243293278</v>
+        <v>1203.530367412736</v>
       </c>
       <c r="G4" t="n">
-        <v>1179.127243293278</v>
+        <v>1203.530367412736</v>
       </c>
       <c r="H4" t="n">
-        <v>1179.127243293278</v>
+        <v>1203.530367412736</v>
       </c>
       <c r="I4" t="n">
         <v>1278.260503384745</v>
@@ -26820,16 +26820,16 @@
         <v>1278.260503384745</v>
       </c>
       <c r="M4" t="n">
-        <v>1219.583795947723</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="N4" t="n">
-        <v>1219.583795947723</v>
+        <v>1235.987501787006</v>
       </c>
       <c r="O4" t="n">
-        <v>1219.583795947723</v>
+        <v>1235.987501787006</v>
       </c>
       <c r="P4" t="n">
-        <v>1219.583795947723</v>
+        <v>1235.987501787006</v>
       </c>
     </row>
   </sheetData>
@@ -26938,10 +26938,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>16.23571033874731</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>11.68860308009815</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>172.3988326694832</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>582.4325531036908</v>
+        <v>493.7421592071394</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>42.27300159773936</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27030,19 +27030,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>99.13326009146704</v>
+        <v>74.73013597200907</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>172.3988326694832</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>523.7558456666687</v>
+        <v>493.7421592071394</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>172.3988326694832</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>582.4325531036908</v>
+        <v>493.7421592071394</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>42.27300159773936</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>268.4237426156385</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>212.4557366627694</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -27427,16 +27427,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>400</v>
@@ -27445,7 +27445,7 @@
         <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,19 +27534,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>15.21302026266352</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27603,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>69.93888010720309</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,22 +27613,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>147.6279365193116</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>400</v>
+        <v>268.3206344988663</v>
       </c>
       <c r="X5" t="n">
         <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27786,10 +27786,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>160.7958207444081</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -27819,22 +27819,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>275.956562087696</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27853,11 +27853,11 @@
         <v>400</v>
       </c>
       <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
         <v>400</v>
       </c>
-      <c r="D8" t="n">
-        <v>128.7178376924092</v>
-      </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
@@ -27868,7 +27868,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,19 +27901,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>227.311415064378</v>
       </c>
       <c r="X8" t="n">
         <v>400</v>
@@ -28065,10 +28065,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>143.6516710866787</v>
       </c>
       <c r="V10" t="n">
-        <v>142.8432604632737</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>16.23571033874731</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>16.23571033874731</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>16.23571033874731</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>16.23571033874731</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>16.23571033874731</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>16.23571033874731</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>16.23571033874731</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>16.23571033874731</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>16.23571033874731</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>16.23571033874731</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>16.23571033874731</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>16.23571033874731</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>16.23571033874731</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>16.23571033874731</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>16.23571033874731</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>16.23571033874731</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>16.23571033874731</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>16.23571033874731</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>16.23571033874731</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>16.23571033874731</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>16.23571033874731</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>16.23571033874731</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>16.23571033874731</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>16.23571033874731</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>16.23571033874731</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>16.23571033874731</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>16.23571033874731</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>16.23571033874731</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>16.23571033874731</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>16.23571033874731</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>16.23571033874731</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>16.23571033874731</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>16.23571033874731</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>16.23571033874731</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>16.23571033874731</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>16.23571033874731</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>16.23571033874731</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>16.23571033874731</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>16.23571033874739</v>
+        <v>11.68860308009815</v>
       </c>
       <c r="C38" t="n">
-        <v>16.23571033874739</v>
+        <v>11.68860308009815</v>
       </c>
       <c r="D38" t="n">
-        <v>16.23571033874739</v>
+        <v>11.68860308009863</v>
       </c>
       <c r="E38" t="n">
-        <v>16.23571033874739</v>
+        <v>11.68860308009815</v>
       </c>
       <c r="F38" t="n">
-        <v>16.23571033874739</v>
+        <v>11.68860308009815</v>
       </c>
       <c r="G38" t="n">
-        <v>16.23571033874739</v>
+        <v>11.68860308009815</v>
       </c>
       <c r="H38" t="n">
-        <v>16.23571033874739</v>
+        <v>11.68860308009815</v>
       </c>
       <c r="I38" t="n">
         <v>0.4126214791313976</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>16.23571033874739</v>
+        <v>11.68860308009815</v>
       </c>
       <c r="T38" t="n">
-        <v>16.23571033874739</v>
+        <v>11.68860308009815</v>
       </c>
       <c r="U38" t="n">
-        <v>16.23571033874739</v>
+        <v>11.68860308009815</v>
       </c>
       <c r="V38" t="n">
-        <v>16.23571033874739</v>
+        <v>11.68860308009815</v>
       </c>
       <c r="W38" t="n">
-        <v>16.23571033874739</v>
+        <v>11.68860308009815</v>
       </c>
       <c r="X38" t="n">
-        <v>16.23571033874739</v>
+        <v>11.68860308009815</v>
       </c>
       <c r="Y38" t="n">
-        <v>16.23571033874583</v>
+        <v>11.68860308009815</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>16.23571033874739</v>
+        <v>11.68860308009815</v>
       </c>
       <c r="C40" t="n">
-        <v>16.23571033874739</v>
+        <v>11.68860308009815</v>
       </c>
       <c r="D40" t="n">
-        <v>16.23571033874739</v>
+        <v>11.68860308009815</v>
       </c>
       <c r="E40" t="n">
-        <v>16.23571033874739</v>
+        <v>11.68860308009815</v>
       </c>
       <c r="F40" t="n">
-        <v>16.23571033874739</v>
+        <v>11.68860308009815</v>
       </c>
       <c r="G40" t="n">
-        <v>16.23571033874739</v>
+        <v>11.68860308009815</v>
       </c>
       <c r="H40" t="n">
-        <v>16.23571033874739</v>
+        <v>11.68860308009815</v>
       </c>
       <c r="I40" t="n">
-        <v>16.23571033874739</v>
+        <v>11.68860308009815</v>
       </c>
       <c r="J40" t="n">
-        <v>16.23571033874739</v>
+        <v>11.68860308009815</v>
       </c>
       <c r="K40" t="n">
-        <v>16.23571033874739</v>
+        <v>11.68860308009815</v>
       </c>
       <c r="L40" t="n">
-        <v>16.23571033874739</v>
+        <v>11.68860308009815</v>
       </c>
       <c r="M40" t="n">
-        <v>16.23571033874739</v>
+        <v>11.68860308009815</v>
       </c>
       <c r="N40" t="n">
-        <v>16.23571033874739</v>
+        <v>11.68860308009815</v>
       </c>
       <c r="O40" t="n">
-        <v>16.23571033874739</v>
+        <v>11.68860308009815</v>
       </c>
       <c r="P40" t="n">
-        <v>16.23571033874739</v>
+        <v>11.68860308009815</v>
       </c>
       <c r="Q40" t="n">
-        <v>16.23571033874739</v>
+        <v>11.68860308009815</v>
       </c>
       <c r="R40" t="n">
-        <v>16.23571033874739</v>
+        <v>11.68860308009815</v>
       </c>
       <c r="S40" t="n">
-        <v>16.23571033874739</v>
+        <v>11.68860308009815</v>
       </c>
       <c r="T40" t="n">
-        <v>16.23571033874739</v>
+        <v>11.68860308009815</v>
       </c>
       <c r="U40" t="n">
-        <v>16.23571033874739</v>
+        <v>11.68860308009815</v>
       </c>
       <c r="V40" t="n">
-        <v>16.23571033874739</v>
+        <v>11.68860308009815</v>
       </c>
       <c r="W40" t="n">
-        <v>16.23571033874739</v>
+        <v>11.68860308009815</v>
       </c>
       <c r="X40" t="n">
-        <v>16.23571033874739</v>
+        <v>11.68860308009815</v>
       </c>
       <c r="Y40" t="n">
-        <v>16.23571033874739</v>
+        <v>11.68860308009815</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>16.23571033874739</v>
+        <v>11.68860308009815</v>
       </c>
       <c r="C41" t="n">
-        <v>16.23571033874739</v>
+        <v>11.68860308009815</v>
       </c>
       <c r="D41" t="n">
-        <v>16.23571033874739</v>
+        <v>11.68860308009815</v>
       </c>
       <c r="E41" t="n">
-        <v>16.23571033874739</v>
+        <v>11.68860308009815</v>
       </c>
       <c r="F41" t="n">
-        <v>16.23571033874739</v>
+        <v>11.68860308009815</v>
       </c>
       <c r="G41" t="n">
-        <v>16.23571033874739</v>
+        <v>11.68860308009815</v>
       </c>
       <c r="H41" t="n">
-        <v>16.23571033874739</v>
+        <v>11.68860308009815</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>16.23571033874739</v>
+        <v>11.68860308009815</v>
       </c>
       <c r="T41" t="n">
-        <v>16.23571033874739</v>
+        <v>11.68860308009815</v>
       </c>
       <c r="U41" t="n">
-        <v>16.23571033874739</v>
+        <v>11.68860308009815</v>
       </c>
       <c r="V41" t="n">
-        <v>16.23571033874739</v>
+        <v>11.68860308009815</v>
       </c>
       <c r="W41" t="n">
-        <v>16.23571033874739</v>
+        <v>11.68860308009815</v>
       </c>
       <c r="X41" t="n">
-        <v>16.23571033874739</v>
+        <v>11.68860308009815</v>
       </c>
       <c r="Y41" t="n">
-        <v>16.23571033874739</v>
+        <v>11.68860308009815</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>16.23571033874739</v>
+        <v>11.68860308009815</v>
       </c>
       <c r="C43" t="n">
-        <v>16.23571033874739</v>
+        <v>11.68860308009815</v>
       </c>
       <c r="D43" t="n">
-        <v>16.23571033874739</v>
+        <v>11.68860308009815</v>
       </c>
       <c r="E43" t="n">
-        <v>16.23571033874739</v>
+        <v>11.68860308009815</v>
       </c>
       <c r="F43" t="n">
-        <v>16.23571033874739</v>
+        <v>11.68860308009815</v>
       </c>
       <c r="G43" t="n">
-        <v>16.23571033874739</v>
+        <v>11.68860308009815</v>
       </c>
       <c r="H43" t="n">
-        <v>16.23571033874739</v>
+        <v>11.68860308009815</v>
       </c>
       <c r="I43" t="n">
-        <v>16.23571033874739</v>
+        <v>11.68860308009815</v>
       </c>
       <c r="J43" t="n">
-        <v>16.23571033874739</v>
+        <v>11.68860308009815</v>
       </c>
       <c r="K43" t="n">
-        <v>16.23571033874739</v>
+        <v>11.68860308009815</v>
       </c>
       <c r="L43" t="n">
-        <v>16.23571033874739</v>
+        <v>11.68860308009815</v>
       </c>
       <c r="M43" t="n">
-        <v>16.23571033874739</v>
+        <v>11.68860308009815</v>
       </c>
       <c r="N43" t="n">
-        <v>16.23571033874739</v>
+        <v>11.68860308009815</v>
       </c>
       <c r="O43" t="n">
-        <v>16.23571033874739</v>
+        <v>11.68860308009815</v>
       </c>
       <c r="P43" t="n">
-        <v>16.23571033874739</v>
+        <v>11.68860308009815</v>
       </c>
       <c r="Q43" t="n">
-        <v>16.23571033874739</v>
+        <v>11.68860308009815</v>
       </c>
       <c r="R43" t="n">
-        <v>16.23571033874739</v>
+        <v>11.68860308009815</v>
       </c>
       <c r="S43" t="n">
-        <v>16.23571033874739</v>
+        <v>11.68860308009815</v>
       </c>
       <c r="T43" t="n">
-        <v>16.23571033874739</v>
+        <v>11.68860308009815</v>
       </c>
       <c r="U43" t="n">
-        <v>16.23571033874739</v>
+        <v>11.68860308009815</v>
       </c>
       <c r="V43" t="n">
-        <v>16.23571033874739</v>
+        <v>11.68860308009815</v>
       </c>
       <c r="W43" t="n">
-        <v>16.23571033874739</v>
+        <v>11.68860308009815</v>
       </c>
       <c r="X43" t="n">
-        <v>16.23571033874739</v>
+        <v>11.68860308009815</v>
       </c>
       <c r="Y43" t="n">
-        <v>16.23571033874739</v>
+        <v>11.68860308009815</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>16.23571033874739</v>
+        <v>11.68860308009815</v>
       </c>
       <c r="C44" t="n">
-        <v>16.23571033874739</v>
+        <v>11.68860308009815</v>
       </c>
       <c r="D44" t="n">
-        <v>16.23571033874739</v>
+        <v>11.68860308009815</v>
       </c>
       <c r="E44" t="n">
-        <v>16.23571033874739</v>
+        <v>11.68860308009815</v>
       </c>
       <c r="F44" t="n">
-        <v>16.23571033874739</v>
+        <v>11.68860308009815</v>
       </c>
       <c r="G44" t="n">
-        <v>16.23571033874739</v>
+        <v>11.68860308009815</v>
       </c>
       <c r="H44" t="n">
-        <v>16.23571033874739</v>
+        <v>11.68860308009815</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>16.23571033874739</v>
+        <v>11.68860308009815</v>
       </c>
       <c r="T44" t="n">
-        <v>16.23571033874739</v>
+        <v>11.68860308009815</v>
       </c>
       <c r="U44" t="n">
-        <v>16.23571033874739</v>
+        <v>11.68860308009815</v>
       </c>
       <c r="V44" t="n">
-        <v>16.23571033874739</v>
+        <v>11.68860308009815</v>
       </c>
       <c r="W44" t="n">
-        <v>16.23571033874739</v>
+        <v>11.68860308009815</v>
       </c>
       <c r="X44" t="n">
-        <v>16.23571033874739</v>
+        <v>11.68860308009815</v>
       </c>
       <c r="Y44" t="n">
-        <v>16.23571033874739</v>
+        <v>11.68860308009815</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16.23571033874739</v>
+        <v>11.68860308009815</v>
       </c>
       <c r="C46" t="n">
-        <v>16.23571033874739</v>
+        <v>11.68860308009815</v>
       </c>
       <c r="D46" t="n">
-        <v>16.23571033874739</v>
+        <v>11.68860308009815</v>
       </c>
       <c r="E46" t="n">
-        <v>16.23571033874739</v>
+        <v>11.68860308009815</v>
       </c>
       <c r="F46" t="n">
-        <v>16.23571033874739</v>
+        <v>11.68860308009815</v>
       </c>
       <c r="G46" t="n">
-        <v>16.23571033874739</v>
+        <v>11.68860308009815</v>
       </c>
       <c r="H46" t="n">
-        <v>16.23571033874739</v>
+        <v>11.68860308009815</v>
       </c>
       <c r="I46" t="n">
-        <v>16.23571033874739</v>
+        <v>11.68860308009815</v>
       </c>
       <c r="J46" t="n">
-        <v>16.23571033874739</v>
+        <v>11.68860308009815</v>
       </c>
       <c r="K46" t="n">
-        <v>16.23571033874739</v>
+        <v>11.68860308009815</v>
       </c>
       <c r="L46" t="n">
-        <v>16.23571033874739</v>
+        <v>11.68860308009815</v>
       </c>
       <c r="M46" t="n">
-        <v>16.23571033874739</v>
+        <v>11.68860308009815</v>
       </c>
       <c r="N46" t="n">
-        <v>16.23571033874739</v>
+        <v>11.68860308009815</v>
       </c>
       <c r="O46" t="n">
-        <v>16.23571033874739</v>
+        <v>11.68860308009815</v>
       </c>
       <c r="P46" t="n">
-        <v>16.23571033874739</v>
+        <v>11.68860308009815</v>
       </c>
       <c r="Q46" t="n">
-        <v>16.23571033874739</v>
+        <v>11.68860308009815</v>
       </c>
       <c r="R46" t="n">
-        <v>16.23571033874739</v>
+        <v>11.68860308009815</v>
       </c>
       <c r="S46" t="n">
-        <v>16.23571033874739</v>
+        <v>11.68860308009815</v>
       </c>
       <c r="T46" t="n">
-        <v>16.23571033874739</v>
+        <v>11.68860308009815</v>
       </c>
       <c r="U46" t="n">
-        <v>16.23571033874739</v>
+        <v>11.68860308009815</v>
       </c>
       <c r="V46" t="n">
-        <v>16.23571033874739</v>
+        <v>11.68860308009815</v>
       </c>
       <c r="W46" t="n">
-        <v>16.23571033874739</v>
+        <v>11.68860308009815</v>
       </c>
       <c r="X46" t="n">
-        <v>16.23571033874739</v>
+        <v>11.68860308009815</v>
       </c>
       <c r="Y46" t="n">
-        <v>16.23571033874739</v>
+        <v>11.68860308009815</v>
       </c>
     </row>
   </sheetData>
@@ -34696,10 +34696,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>88.52591951400984</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34711,16 +34711,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34778,7 +34778,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34790,13 +34790,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>58.38468441396117</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,16 +34933,16 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -34951,10 +34951,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
-        <v>150.1941962971706</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,22 +35173,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>596.6946901895874</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>6.7476371749799</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>596.6946901895876</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
@@ -35252,10 +35252,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>596.6946901895875</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>64.62454882629493</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>254.4590810510516</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,13 +35407,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473919</v>
+        <v>119.7739633014088</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>836.7994163466678</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35565,16 +35565,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
@@ -35644,19 +35644,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473919</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>383.6571603916798</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>587.5568997613514</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35665,10 +35665,10 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
         <v>327.836691885063</v>
@@ -35741,7 +35741,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>687.6461816022035</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35808,7 +35808,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645586</v>
@@ -35820,7 +35820,7 @@
         <v>423.9083325512945</v>
       </c>
       <c r="P16" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165066</v>
       </c>
       <c r="Q16" t="n">
         <v>169.8916917821539</v>
@@ -35881,28 +35881,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>287.0306487267546</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>18.36946185017587</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35957,10 +35957,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>187.4796750234298</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -35978,7 +35978,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>828.0031984638366</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36054,10 +36054,10 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P19" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165066</v>
       </c>
       <c r="Q19" t="n">
         <v>169.8916917821539</v>
@@ -36118,10 +36118,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>361.3941496326426</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
@@ -36142,7 +36142,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>18.36946185017587</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,22 +36200,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -36282,7 +36282,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
         <v>464.1251183645586</v>
@@ -36294,7 +36294,7 @@
         <v>423.9083325512945</v>
       </c>
       <c r="P22" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165066</v>
       </c>
       <c r="Q22" t="n">
         <v>169.8916917821539</v>
@@ -36364,10 +36364,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36528,7 +36528,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
@@ -36598,13 +36598,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>92.22506899525706</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
@@ -36674,22 +36674,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908053</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
         <v>277.5337924960966</v>
@@ -36759,7 +36759,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N28" t="n">
         <v>446.7260637956006</v>
@@ -36838,10 +36838,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
@@ -37002,13 +37002,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P31" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q31" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37075,10 +37075,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
@@ -37239,7 +37239,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P34" t="n">
         <v>351.017064616507</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458551</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>81.93455261497274</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37400,7 +37400,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>103.6899377778282</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
-        <v>293.7695028348437</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>438.6699343467888</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>480.360828703306</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N37" t="n">
-        <v>462.9617741343479</v>
+        <v>446.7260637956008</v>
       </c>
       <c r="O37" t="n">
-        <v>440.1440428900419</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P37" t="n">
-        <v>367.2527749552542</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q37" t="n">
-        <v>186.127402120901</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,7 +37543,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
@@ -37555,16 +37555,16 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>990.0804712831377</v>
+        <v>966.1043795919818</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>81.93455261497274</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,7 +37622,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37637,7 +37637,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>103.689937777828</v>
+        <v>99.14283051917882</v>
       </c>
       <c r="K40" t="n">
-        <v>293.7695028348439</v>
+        <v>289.2223955761947</v>
       </c>
       <c r="L40" t="n">
-        <v>438.6699343467892</v>
+        <v>434.1228270881397</v>
       </c>
       <c r="M40" t="n">
-        <v>480.360828703306</v>
+        <v>475.8137214446568</v>
       </c>
       <c r="N40" t="n">
-        <v>462.9617741343479</v>
+        <v>458.4146668756985</v>
       </c>
       <c r="O40" t="n">
-        <v>440.1440428900419</v>
+        <v>435.5969356313919</v>
       </c>
       <c r="P40" t="n">
-        <v>367.2527749552542</v>
+        <v>362.7056676966054</v>
       </c>
       <c r="Q40" t="n">
-        <v>186.127402120901</v>
+        <v>181.5802948622522</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,16 +37780,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1061.943066140015</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>671.0339043800541</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37874,7 +37874,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>103.689937777828</v>
+        <v>99.14283051917882</v>
       </c>
       <c r="K43" t="n">
-        <v>293.7695028348439</v>
+        <v>289.2223955761947</v>
       </c>
       <c r="L43" t="n">
-        <v>438.6699343467889</v>
+        <v>434.1228270881396</v>
       </c>
       <c r="M43" t="n">
-        <v>480.3608287033061</v>
+        <v>475.8137214446567</v>
       </c>
       <c r="N43" t="n">
-        <v>462.9617741343479</v>
+        <v>458.4146668756987</v>
       </c>
       <c r="O43" t="n">
-        <v>440.1440428900421</v>
+        <v>435.5969356313929</v>
       </c>
       <c r="P43" t="n">
-        <v>367.2527749552546</v>
+        <v>362.7056676966054</v>
       </c>
       <c r="Q43" t="n">
-        <v>186.1274021209015</v>
+        <v>181.5802948622522</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,13 +38017,13 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
-        <v>1085.919157831171</v>
+        <v>1061.943066140016</v>
       </c>
       <c r="M44" t="n">
-        <v>747.7485021910738</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -38032,7 +38032,7 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
@@ -38111,7 +38111,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>103.6899377778282</v>
+        <v>99.14283051917883</v>
       </c>
       <c r="K46" t="n">
-        <v>293.7695028348439</v>
+        <v>289.2223955761947</v>
       </c>
       <c r="L46" t="n">
-        <v>438.6699343467889</v>
+        <v>434.1228270881396</v>
       </c>
       <c r="M46" t="n">
-        <v>480.3608287033061</v>
+        <v>475.8137214446568</v>
       </c>
       <c r="N46" t="n">
-        <v>462.9617741343479</v>
+        <v>458.4146668756985</v>
       </c>
       <c r="O46" t="n">
-        <v>440.1440428900414</v>
+        <v>435.5969356313929</v>
       </c>
       <c r="P46" t="n">
-        <v>367.2527749552542</v>
+        <v>362.7056676966054</v>
       </c>
       <c r="Q46" t="n">
-        <v>186.127402120901</v>
+        <v>181.5802948622522</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
